--- a/miscs/excel/001.interpolation.xlsx
+++ b/miscs/excel/001.interpolation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\dal\miscs\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\Derivatives-Algorithms-Lib\miscs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3512171-F22E-4429-A6A8-A931195565DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D92D896-1900-45FA-88D5-679813434CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="linear Interp" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +160,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,21 +190,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3305,46 +3314,48 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>0.54860451258886855</v>
       </c>
-      <c r="E2" t="str" cm="1">
-        <f t="array" aca="1" ref="E2" ca="1">_xll.INTERP1.NEW.LINEAR(E1,A2:A6,B2:B6)</f>
-        <v>~Interp1~my.interp.linear~0000011C994C25D0</v>
+      <c r="E2" s="1" t="str" cm="1">
+        <f t="array" ref="E2">_xll.INTERP1.NEW.LINEAR(E1,A2:A6,B2:B6)</f>
+        <v>~Interp1~my.interp.linear~000001E079121FA0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
       <c r="B3" s="4">
@@ -3352,36 +3363,36 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>0.43</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>0.33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" cm="1">
-        <f t="array" aca="1" ref="E5" ca="1">_xll.INTERP1.GET(E2,E4)</f>
+        <f t="array" ref="E5">_xll.INTERP1.GET(E2,E4)</f>
         <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>9</v>
       </c>
       <c r="B6" s="4">
@@ -3389,819 +3400,739 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <f t="array" aca="1" ref="B9:B89" ca="1">_xll.INTERP1.GET(E2,A9:A89)</f>
+        <f t="array" ref="B9:B89">_xll.INTERP1.GET(E2,A9:A89)</f>
         <v>0.54860451258886855</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1"/>
         <v>0.55617428695942517</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>1.2</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1"/>
         <v>0.56374406132998167</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>1.3</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1"/>
         <v>0.57131383570053829</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>1.4</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1"/>
         <v>0.57888361007109479</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>1.5</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1"/>
         <v>0.5864533844416514</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>1.6</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1"/>
         <v>0.59402315881220802</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>1.7</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1"/>
         <v>0.60159293318276452</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>1.8</v>
       </c>
       <c r="B17" s="2">
-        <f ca="1"/>
         <v>0.60916270755332114</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>1.9</v>
       </c>
       <c r="B18" s="2">
-        <f ca="1"/>
         <v>0.61673248192387764</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>2</v>
       </c>
       <c r="B19" s="2">
-        <f ca="1"/>
         <v>0.62430225629443425</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="5">
         <v>2.1</v>
       </c>
       <c r="B20" s="2">
-        <f ca="1"/>
         <v>0.63187203066499087</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="B21" s="2">
-        <f ca="1"/>
         <v>0.63944180503554737</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="B22" s="2">
-        <f ca="1"/>
         <v>0.64701157940610399</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="5">
         <v>2.4</v>
       </c>
       <c r="B23" s="2">
-        <f ca="1"/>
         <v>0.65458135377666049</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="5">
         <v>2.5</v>
       </c>
       <c r="B24" s="2">
-        <f ca="1"/>
         <v>0.66215112814721711</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="5">
         <v>2.6</v>
       </c>
       <c r="B25" s="2">
-        <f ca="1"/>
         <v>0.66972090251777372</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="5">
         <v>2.7</v>
       </c>
       <c r="B26" s="2">
-        <f ca="1"/>
         <v>0.67729067688833022</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="5">
         <v>2.8</v>
       </c>
       <c r="B27" s="2">
-        <f ca="1"/>
         <v>0.68486045125888684</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="5">
         <v>2.9</v>
       </c>
       <c r="B28" s="2">
-        <f ca="1"/>
         <v>0.69243022562944334</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="5">
         <v>3</v>
       </c>
       <c r="B29" s="2">
-        <f ca="1"/>
         <v>0.7</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="5">
         <v>3.1</v>
       </c>
       <c r="B30" s="2">
-        <f ca="1"/>
         <v>0.6865</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="5">
         <v>3.2</v>
       </c>
       <c r="B31" s="2">
-        <f ca="1"/>
         <v>0.67299999999999993</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="5">
         <v>3.3</v>
       </c>
       <c r="B32" s="2">
-        <f ca="1"/>
         <v>0.65949999999999998</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="5">
         <v>3.4</v>
       </c>
       <c r="B33" s="2">
-        <f ca="1"/>
         <v>0.64600000000000002</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="5">
         <v>3.5</v>
       </c>
       <c r="B34" s="2">
-        <f ca="1"/>
         <v>0.63249999999999995</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="5">
         <v>3.6</v>
       </c>
       <c r="B35" s="2">
-        <f ca="1"/>
         <v>0.61899999999999999</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="5">
         <v>3.7</v>
       </c>
       <c r="B36" s="2">
-        <f ca="1"/>
         <v>0.60549999999999993</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="5">
         <v>3.8</v>
       </c>
       <c r="B37" s="2">
-        <f ca="1"/>
         <v>0.59199999999999997</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38" s="5">
         <v>3.9</v>
       </c>
       <c r="B38" s="2">
-        <f ca="1"/>
         <v>0.57850000000000001</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="5">
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <f ca="1"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="5">
         <v>4.0999999999999996</v>
       </c>
       <c r="B40" s="2">
-        <f ca="1"/>
         <v>0.55149999999999999</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="5">
         <v>4.2</v>
       </c>
       <c r="B41" s="2">
-        <f ca="1"/>
         <v>0.53799999999999992</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="A42" s="5">
         <v>4.3</v>
       </c>
       <c r="B42" s="2">
-        <f ca="1"/>
         <v>0.52449999999999997</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="A43" s="5">
         <v>4.4000000000000004</v>
       </c>
       <c r="B43" s="2">
-        <f ca="1"/>
         <v>0.5109999999999999</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="A44" s="5">
         <v>4.5</v>
       </c>
       <c r="B44" s="2">
-        <f ca="1"/>
         <v>0.4975</v>
       </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="A45" s="5">
         <v>4.5999999999999996</v>
       </c>
       <c r="B45" s="2">
-        <f ca="1"/>
         <v>0.48400000000000004</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="A46" s="5">
         <v>4.7</v>
       </c>
       <c r="B46" s="2">
-        <f ca="1"/>
         <v>0.47049999999999997</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="A47" s="5">
         <v>4.8</v>
       </c>
       <c r="B47" s="2">
-        <f ca="1"/>
         <v>0.45700000000000002</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="A48" s="5">
         <v>4.9000000000000004</v>
       </c>
       <c r="B48" s="2">
-        <f ca="1"/>
         <v>0.44349999999999995</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="A49" s="5">
         <v>5</v>
       </c>
       <c r="B49" s="2">
-        <f ca="1"/>
         <v>0.43</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="A50" s="5">
         <v>5.0999999999999996</v>
       </c>
       <c r="B50" s="2">
-        <f ca="1"/>
         <v>0.42499999999999999</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="A51" s="5">
         <v>5.2</v>
       </c>
       <c r="B51" s="2">
-        <f ca="1"/>
         <v>0.42</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="A52" s="5">
         <v>5.3</v>
       </c>
       <c r="B52" s="2">
-        <f ca="1"/>
         <v>0.41499999999999998</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+      <c r="A53" s="5">
         <v>5.4</v>
       </c>
       <c r="B53" s="2">
-        <f ca="1"/>
         <v>0.41</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+      <c r="A54" s="5">
         <v>5.5</v>
       </c>
       <c r="B54" s="2">
-        <f ca="1"/>
         <v>0.40500000000000003</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+      <c r="A55" s="5">
         <v>5.6</v>
       </c>
       <c r="B55" s="2">
-        <f ca="1"/>
         <v>0.4</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+      <c r="A56" s="5">
         <v>5.7</v>
       </c>
       <c r="B56" s="2">
-        <f ca="1"/>
         <v>0.39500000000000002</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+      <c r="A57" s="5">
         <v>5.8</v>
       </c>
       <c r="B57" s="2">
-        <f ca="1"/>
         <v>0.39</v>
       </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+      <c r="A58" s="5">
         <v>5.9</v>
       </c>
       <c r="B58" s="2">
-        <f ca="1"/>
         <v>0.38500000000000001</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+      <c r="A59" s="5">
         <v>6</v>
       </c>
       <c r="B59" s="2">
-        <f ca="1"/>
         <v>0.38</v>
       </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+      <c r="A60" s="5">
         <v>6.1</v>
       </c>
       <c r="B60" s="2">
-        <f ca="1"/>
         <v>0.375</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+      <c r="A61" s="5">
         <v>6.2</v>
       </c>
       <c r="B61" s="2">
-        <f ca="1"/>
         <v>0.37</v>
       </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+      <c r="A62" s="5">
         <v>6.3</v>
       </c>
       <c r="B62" s="2">
-        <f ca="1"/>
         <v>0.36499999999999999</v>
       </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+      <c r="A63" s="5">
         <v>6.4</v>
       </c>
       <c r="B63" s="2">
-        <f ca="1"/>
         <v>0.36</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+      <c r="A64" s="5">
         <v>6.5000000000000098</v>
       </c>
       <c r="B64" s="2">
-        <f ca="1"/>
         <v>0.35499999999999954</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+      <c r="A65" s="5">
         <v>6.6</v>
       </c>
       <c r="B65" s="2">
-        <f ca="1"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+      <c r="A66" s="5">
         <v>6.7</v>
       </c>
       <c r="B66" s="2">
-        <f ca="1"/>
         <v>0.34499999999999997</v>
       </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+      <c r="A67" s="5">
         <v>6.8000000000000096</v>
       </c>
       <c r="B67" s="2">
-        <f ca="1"/>
         <v>0.33999999999999952</v>
       </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+      <c r="A68" s="5">
         <v>6.9000000000000101</v>
       </c>
       <c r="B68" s="2">
-        <f ca="1"/>
         <v>0.33499999999999952</v>
       </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+      <c r="A69" s="5">
         <v>7.0000000000000098</v>
       </c>
       <c r="B69" s="2">
-        <f ca="1"/>
         <v>0.33000000000000279</v>
       </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+      <c r="A70" s="5">
         <v>7.1</v>
       </c>
       <c r="B70" s="2">
-        <f ca="1"/>
         <v>0.35849999999999993</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
+      <c r="A71" s="5">
         <v>7.2000000000000099</v>
       </c>
       <c r="B71" s="2">
-        <f ca="1"/>
         <v>0.38700000000000284</v>
       </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
+      <c r="A72" s="5">
         <v>7.3000000000000096</v>
       </c>
       <c r="B72" s="2">
-        <f ca="1"/>
         <v>0.41550000000000276</v>
       </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
+      <c r="A73" s="5">
         <v>7.4000000000000101</v>
       </c>
       <c r="B73" s="2">
-        <f ca="1"/>
         <v>0.44400000000000295</v>
       </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+      <c r="A74" s="5">
         <v>7.5000000000000098</v>
       </c>
       <c r="B74" s="2">
-        <f ca="1"/>
         <v>0.47250000000000281</v>
       </c>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+      <c r="A75" s="5">
         <v>7.6000000000000103</v>
       </c>
       <c r="B75" s="2">
-        <f ca="1"/>
         <v>0.501000000000003</v>
       </c>
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+      <c r="A76" s="5">
         <v>7.7000000000000099</v>
       </c>
       <c r="B76" s="2">
-        <f ca="1"/>
         <v>0.52950000000000286</v>
       </c>
       <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+      <c r="A77" s="5">
         <v>7.8000000000000096</v>
       </c>
       <c r="B77" s="2">
-        <f ca="1"/>
         <v>0.55800000000000272</v>
       </c>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+      <c r="A78" s="5">
         <v>7.9000000000000101</v>
       </c>
       <c r="B78" s="2">
-        <f ca="1"/>
         <v>0.58650000000000291</v>
       </c>
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+      <c r="A79" s="5">
         <v>8.0000000000000107</v>
       </c>
       <c r="B79" s="2">
-        <f ca="1"/>
         <v>0.6150000000000031</v>
       </c>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
+      <c r="A80" s="5">
         <v>8.1000000000000103</v>
       </c>
       <c r="B80" s="2">
-        <f ca="1"/>
         <v>0.64350000000000296</v>
       </c>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
+      <c r="A81" s="5">
         <v>8.2000000000000099</v>
       </c>
       <c r="B81" s="2">
-        <f ca="1"/>
         <v>0.67200000000000282</v>
       </c>
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+      <c r="A82" s="5">
         <v>8.3000000000000096</v>
       </c>
       <c r="B82" s="2">
-        <f ca="1"/>
         <v>0.70050000000000279</v>
       </c>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
+      <c r="A83" s="5">
         <v>8.4000000000000092</v>
       </c>
       <c r="B83" s="2">
-        <f ca="1"/>
         <v>0.72900000000000276</v>
       </c>
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
+      <c r="A84" s="5">
         <v>8.5000000000000107</v>
       </c>
       <c r="B84" s="2">
-        <f ca="1"/>
         <v>0.75750000000000317</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+      <c r="A85" s="5">
         <v>8.6000000000000103</v>
       </c>
       <c r="B85" s="2">
-        <f ca="1"/>
         <v>0.78600000000000292</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
+      <c r="A86" s="5">
         <v>8.7000000000000099</v>
       </c>
       <c r="B86" s="2">
-        <f ca="1"/>
         <v>0.81450000000000289</v>
       </c>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
+      <c r="A87" s="5">
         <v>8.8000000000000096</v>
       </c>
       <c r="B87" s="2">
-        <f ca="1"/>
         <v>0.84300000000000286</v>
       </c>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
+      <c r="A88" s="5">
         <v>8.9000000000000092</v>
       </c>
       <c r="B88" s="2">
-        <f ca="1"/>
         <v>0.87150000000000261</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
+      <c r="A89" s="5">
         <v>9.0000000000000107</v>
       </c>
       <c r="B89" s="2">
-        <f ca="1"/>
         <v>0.9</v>
       </c>
       <c r="C89" s="2"/>
@@ -4220,103 +4151,105 @@
   <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="101.125" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="101.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>0.54860451258886855</v>
       </c>
-      <c r="E2" t="str" cm="1">
-        <f t="array" aca="1" ref="E2" ca="1">_xll.INTERP1.NEW.CUBIC(E1,A2:A6,B2:B6,H2:H3,I2:I3)</f>
-        <v>~Interp1~my.interp.cubic~0000011CA3DC6320</v>
-      </c>
-      <c r="H2">
+      <c r="E2" s="1" t="str" cm="1">
+        <f t="array" ref="E2">_xll.INTERP1.NEW.CUBIC(E1,A2:A6,B2:B6,H2:H3,I2:I3)</f>
+        <v>~Interp1~my.interp.cubic~000001E07C776EA0</v>
+      </c>
+      <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>0.7</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>0.43</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>0.33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" cm="1">
-        <f t="array" aca="1" ref="E5" ca="1">_xll.INTERP1.GET(E2,E4)</f>
+        <f t="array" ref="E5">_xll.INTERP1.GET(E2,E4)</f>
         <v>0.30957465847962218</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>9</v>
       </c>
       <c r="B6" s="4">
@@ -4324,738 +4257,659 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>1</v>
       </c>
       <c r="B10" s="2">
-        <f t="array" aca="1" ref="B10:B89" ca="1">_xll.INTERP1.GET(E2,A10:A89)</f>
+        <f t="array" ref="B10:B89">_xll.INTERP1.GET(E2,A10:A89)</f>
         <v>0.54860451258886855</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1"/>
         <v>0.56199089854905826</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>1.2</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1"/>
         <v>0.57528981666579471</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>1.3</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1"/>
         <v>0.58841379909562497</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>1.4</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1"/>
         <v>0.60127537799509578</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>1.5</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1"/>
         <v>0.61378708552075423</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>1.6</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1"/>
         <v>0.62586145382914704</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>1.7</v>
       </c>
       <c r="B17" s="2">
-        <f ca="1"/>
         <v>0.63741101507682085</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>1.8</v>
       </c>
       <c r="B18" s="2">
-        <f ca="1"/>
         <v>0.64834830142032285</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>1.9</v>
       </c>
       <c r="B19" s="2">
-        <f ca="1"/>
         <v>0.65858584501619999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="5">
         <v>2</v>
       </c>
       <c r="B20" s="2">
-        <f ca="1"/>
         <v>0.66803617802099879</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="5">
         <v>2.1</v>
       </c>
       <c r="B21" s="2">
-        <f ca="1"/>
         <v>0.67661183259126645</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="B22" s="2">
-        <f ca="1"/>
         <v>0.68422534088354947</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="B23" s="2">
-        <f ca="1"/>
         <v>0.69078923505439505</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="5">
         <v>2.4</v>
       </c>
       <c r="B24" s="2">
-        <f ca="1"/>
         <v>0.69621604726034991</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="5">
         <v>2.5</v>
       </c>
       <c r="B25" s="2">
-        <f ca="1"/>
         <v>0.70041830965796092</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="5">
         <v>2.6</v>
       </c>
       <c r="B26" s="2">
-        <f ca="1"/>
         <v>0.70330855440377515</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="5">
         <v>2.7</v>
       </c>
       <c r="B27" s="2">
-        <f ca="1"/>
         <v>0.70479931365433934</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="5">
         <v>2.8</v>
       </c>
       <c r="B28" s="2">
-        <f ca="1"/>
         <v>0.70480311956620023</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="5">
         <v>2.9</v>
       </c>
       <c r="B29" s="2">
-        <f ca="1"/>
         <v>0.70323250429590478</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="5">
         <v>3</v>
       </c>
       <c r="B30" s="2">
-        <f ca="1"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="5">
         <v>3.1</v>
       </c>
       <c r="B31" s="2">
-        <f ca="1"/>
         <v>0.69505293224255915</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="5">
         <v>3.2</v>
       </c>
       <c r="B32" s="2">
-        <f ca="1"/>
         <v>0.68847780021776317</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="5">
         <v>3.3</v>
       </c>
       <c r="B33" s="2">
-        <f ca="1"/>
         <v>0.68039589652731924</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="5">
         <v>3.4</v>
       </c>
       <c r="B34" s="2">
-        <f ca="1"/>
         <v>0.6709285137729345</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="5">
         <v>3.5</v>
       </c>
       <c r="B35" s="2">
-        <f ca="1"/>
         <v>0.6601969445563165</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="5">
         <v>3.6</v>
       </c>
       <c r="B36" s="2">
-        <f ca="1"/>
         <v>0.64832248147917237</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="5">
         <v>3.7</v>
       </c>
       <c r="B37" s="2">
-        <f ca="1"/>
         <v>0.63542641714320935</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38" s="5">
         <v>3.8</v>
       </c>
       <c r="B38" s="2">
-        <f ca="1"/>
         <v>0.6216300441501349</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="5">
         <v>3.9</v>
       </c>
       <c r="B39" s="2">
-        <f ca="1"/>
         <v>0.60705465510165624</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="5">
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <f ca="1"/>
         <v>0.59182154259948061</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="5">
         <v>4.0999999999999996</v>
       </c>
       <c r="B41" s="2">
-        <f ca="1"/>
         <v>0.57605199924531558</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="A42" s="5">
         <v>4.2</v>
       </c>
       <c r="B42" s="2">
-        <f ca="1"/>
         <v>0.55986731764086783</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="A43" s="5">
         <v>4.3</v>
       </c>
       <c r="B43" s="2">
-        <f ca="1"/>
         <v>0.54338879038784538</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="A44" s="5">
         <v>4.4000000000000004</v>
       </c>
       <c r="B44" s="2">
-        <f ca="1"/>
         <v>0.526737710087955</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="A45" s="5">
         <v>4.5</v>
       </c>
       <c r="B45" s="2">
-        <f ca="1"/>
         <v>0.51003536934290439</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="A46" s="5">
         <v>4.5999999999999996</v>
       </c>
       <c r="B46" s="2">
-        <f ca="1"/>
         <v>0.49340306075440066</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="A47" s="5">
         <v>4.7</v>
       </c>
       <c r="B47" s="2">
-        <f ca="1"/>
         <v>0.47696207692415094</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="A48" s="5">
         <v>4.8</v>
       </c>
       <c r="B48" s="2">
-        <f ca="1"/>
         <v>0.46083371045386279</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="A49" s="5">
         <v>4.9000000000000004</v>
       </c>
       <c r="B49" s="2">
-        <f ca="1"/>
         <v>0.44513925394524329</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="A50" s="5">
         <v>5</v>
       </c>
       <c r="B50" s="2">
-        <f ca="1"/>
         <v>0.43</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="A51" s="5">
         <v>5.0999999999999996</v>
       </c>
       <c r="B51" s="2">
-        <f ca="1"/>
         <v>0.41552466646158592</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="A52" s="5">
         <v>5.2</v>
       </c>
       <c r="B52" s="2">
-        <f ca="1"/>
         <v>0.40177167214043724</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+      <c r="A53" s="5">
         <v>5.3</v>
       </c>
       <c r="B53" s="2">
-        <f ca="1"/>
         <v>0.38878686108873672</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+      <c r="A54" s="5">
         <v>5.4</v>
       </c>
       <c r="B54" s="2">
-        <f ca="1"/>
         <v>0.37661607735866626</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+      <c r="A55" s="5">
         <v>5.5</v>
       </c>
       <c r="B55" s="2">
-        <f ca="1"/>
         <v>0.36530516500240851</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+      <c r="A56" s="5">
         <v>5.6</v>
       </c>
       <c r="B56" s="2">
-        <f ca="1"/>
         <v>0.35489996807214547</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+      <c r="A57" s="5">
         <v>5.7</v>
       </c>
       <c r="B57" s="2">
-        <f ca="1"/>
         <v>0.34544633062005947</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+      <c r="A58" s="5">
         <v>5.8</v>
       </c>
       <c r="B58" s="2">
-        <f ca="1"/>
         <v>0.33699009669833291</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+      <c r="A59" s="5">
         <v>5.9</v>
       </c>
       <c r="B59" s="2">
-        <f ca="1"/>
         <v>0.32957711035914805</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+      <c r="A60" s="5">
         <v>6</v>
       </c>
       <c r="B60" s="2">
-        <f ca="1"/>
         <v>0.32325321565468712</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+      <c r="A61" s="5">
         <v>6.1</v>
       </c>
       <c r="B61" s="2">
-        <f ca="1"/>
         <v>0.31806425663713245</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+      <c r="A62" s="5">
         <v>6.2</v>
       </c>
       <c r="B62" s="2">
-        <f ca="1"/>
         <v>0.31405607735866631</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+      <c r="A63" s="5">
         <v>6.3</v>
       </c>
       <c r="B63" s="2">
-        <f ca="1"/>
         <v>0.31127452187147103</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+      <c r="A64" s="5">
         <v>6.4</v>
       </c>
       <c r="B64" s="2">
-        <f ca="1"/>
         <v>0.3097654342277289</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+      <c r="A65" s="5">
         <v>6.5000000000000098</v>
       </c>
       <c r="B65" s="2">
-        <f ca="1"/>
         <v>0.30957465847962223</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+      <c r="A66" s="5">
         <v>6.6</v>
       </c>
       <c r="B66" s="2">
-        <f ca="1"/>
         <v>0.31074803867933315</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+      <c r="A67" s="5">
         <v>6.7</v>
       </c>
       <c r="B67" s="2">
-        <f ca="1"/>
         <v>0.31333141887904414</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+      <c r="A68" s="5">
         <v>6.8000000000000096</v>
       </c>
       <c r="B68" s="2">
-        <f ca="1"/>
         <v>0.31737064313093788</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+      <c r="A69" s="5">
         <v>6.9000000000000101</v>
       </c>
       <c r="B69" s="2">
-        <f ca="1"/>
         <v>0.32291155548719591</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+      <c r="A70" s="5">
         <v>7.0000000000000098</v>
       </c>
       <c r="B70" s="2">
-        <f ca="1"/>
         <v>0.33000000000000079</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
+      <c r="A71" s="5">
         <v>7.1</v>
       </c>
       <c r="B71" s="2">
-        <f ca="1"/>
         <v>0.33866090191109738</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
+      <c r="A72" s="5">
         <v>7.2000000000000099</v>
       </c>
       <c r="B72" s="2">
-        <f ca="1"/>
         <v>0.34883551122048867</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
+      <c r="A73" s="5">
         <v>7.3000000000000096</v>
       </c>
       <c r="B73" s="2">
-        <f ca="1"/>
         <v>0.36044415911773514</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+      <c r="A74" s="5">
         <v>7.4000000000000101</v>
       </c>
       <c r="B74" s="2">
-        <f ca="1"/>
         <v>0.37340717679240154</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+      <c r="A75" s="5">
         <v>7.5000000000000098</v>
       </c>
       <c r="B75" s="2">
-        <f ca="1"/>
         <v>0.38764489543405101</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+      <c r="A76" s="5">
         <v>7.6000000000000103</v>
       </c>
       <c r="B76" s="2">
-        <f ca="1"/>
         <v>0.40307764623224768</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+      <c r="A77" s="5">
         <v>7.7000000000000099</v>
       </c>
       <c r="B77" s="2">
-        <f ca="1"/>
         <v>0.41962576037655441</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+      <c r="A78" s="5">
         <v>7.8000000000000096</v>
       </c>
       <c r="B78" s="2">
-        <f ca="1"/>
         <v>0.43720956905653519</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+      <c r="A79" s="5">
         <v>7.9000000000000101</v>
       </c>
       <c r="B79" s="2">
-        <f ca="1"/>
         <v>0.45574940346175358</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
+      <c r="A80" s="5">
         <v>8.0000000000000107</v>
       </c>
       <c r="B80" s="2">
-        <f ca="1"/>
         <v>0.475165594781773</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
+      <c r="A81" s="5">
         <v>8.1000000000000103</v>
       </c>
       <c r="B81" s="2">
-        <f ca="1"/>
         <v>0.49537847420615688</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+      <c r="A82" s="5">
         <v>8.2000000000000099</v>
       </c>
       <c r="B82" s="2">
-        <f ca="1"/>
         <v>0.51630837292446885</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
+      <c r="A83" s="5">
         <v>8.3000000000000096</v>
       </c>
       <c r="B83" s="2">
-        <f ca="1"/>
         <v>0.53787562212627249</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
+      <c r="A84" s="5">
         <v>8.4000000000000092</v>
       </c>
       <c r="B84" s="2">
-        <f ca="1"/>
         <v>0.56000055300113138</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+      <c r="A85" s="5">
         <v>8.5000000000000107</v>
       </c>
       <c r="B85" s="2">
-        <f ca="1"/>
         <v>0.58260349673860923</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
+      <c r="A86" s="5">
         <v>8.6000000000000103</v>
       </c>
       <c r="B86" s="2">
-        <f ca="1"/>
         <v>0.60560478452826916</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
+      <c r="A87" s="5">
         <v>8.7000000000000099</v>
       </c>
       <c r="B87" s="2">
-        <f ca="1"/>
         <v>0.62892474755967465</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
+      <c r="A88" s="5">
         <v>8.8000000000000096</v>
       </c>
       <c r="B88" s="2">
-        <f ca="1"/>
         <v>0.65248371702238983</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
+      <c r="A89" s="5">
         <v>8.9000000000000092</v>
       </c>
       <c r="B89" s="2">
-        <f ca="1"/>
         <v>0.67620202410597774</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
+      <c r="A90" s="5"/>
       <c r="B90" s="2"/>
     </row>
   </sheetData>
@@ -5070,44 +4924,47 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AA47" sqref="AA47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="6" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="6" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="36.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>5</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>7</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -5125,13 +4982,13 @@
       <c r="F2" s="2">
         <v>6.2349232617800676E-2</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="1" t="str">
         <f t="array" aca="1" ref="I2" ca="1">_xll.INTERP2.NEW.LINEAR(I1,A2:A6,B1:F1,B2:F6)</f>
         <v>~Interp2~my.interp2d.linear~0000011CA3DBE8D0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -5151,7 +5008,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>5</v>
       </c>
       <c r="B4" s="2">
@@ -5169,7 +5026,7 @@
       <c r="F4" s="2">
         <v>0.29884974651773333</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="2">
@@ -5177,7 +5034,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>7</v>
       </c>
       <c r="B5" s="2">
@@ -5195,7 +5052,7 @@
       <c r="F5" s="2">
         <v>0.69027509032111922</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="2">
@@ -5203,7 +5060,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>9</v>
       </c>
       <c r="B6" s="2">
@@ -5221,7 +5078,7 @@
       <c r="F6" s="2">
         <v>0.92933391580233393</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="2" cm="1">
@@ -5230,39 +5087,39 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>5</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>6</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>7</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>8</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="2">
@@ -5303,7 +5160,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="2">
@@ -5344,7 +5201,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" s="2">
@@ -5385,7 +5242,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="2">
@@ -5426,7 +5283,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>5</v>
       </c>
       <c r="B16" s="2">
@@ -5467,7 +5324,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>6</v>
       </c>
       <c r="B17" s="2">
@@ -5508,7 +5365,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>7</v>
       </c>
       <c r="B18" s="2">
@@ -5549,7 +5406,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>8</v>
       </c>
       <c r="B19" s="2">
@@ -5590,7 +5447,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>9</v>
       </c>
       <c r="B20" s="2">

--- a/miscs/excel/001.interpolation.xlsx
+++ b/miscs/excel/001.interpolation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\github\Derivatives-Algorithms-Lib\miscs\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wegam\github\Derivatives-Algorithms-Lib\miscs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D92D896-1900-45FA-88D5-679813434CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC349FE9-58AA-48A2-B97C-D39BF9A8D4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
   <sheets>
     <sheet name="linear Interp" sheetId="1" r:id="rId1"/>
@@ -569,247 +569,247 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>0.54860451258886855</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55617428695942517</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56374406132998167</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57131383570053829</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57888361007109479</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5864533844416514</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59402315881220802</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60159293318276452</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60916270755332114</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61673248192387764</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62430225629443425</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.63187203066499087</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.63944180503554737</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64701157940610399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.65458135377666049</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66215112814721711</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.66972090251777372</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.67729067688833022</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.68486045125888684</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.69243022562944334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.6865</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.67299999999999993</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.65949999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.64600000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.63249999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.61899999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.60549999999999993</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.59199999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.57850000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.56499999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.55149999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.53799999999999992</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.52449999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5109999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4975</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.48400000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.47049999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.45700000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.44349999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.43</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.42499999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.41499999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.41</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.40500000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.39500000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.38500000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.37</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.36499999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.36</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.35499999999999954</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.35000000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.34499999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.33999999999999952</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.33499999999999952</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.33000000000000279</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.35849999999999993</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.38700000000000284</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.41550000000000276</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.44400000000000295</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.47250000000000281</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.501000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.52950000000000286</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.55800000000000272</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.58650000000000291</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.6150000000000031</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.64350000000000296</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.67200000000000282</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.70050000000000279</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.72900000000000276</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.75750000000000317</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.78600000000000292</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.81450000000000289</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.84300000000000286</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.87150000000000261</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3015,9 +3015,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3055,7 +3055,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3161,7 +3161,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3303,7 +3303,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3314,21 +3314,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3342,7 +3344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3350,11 +3352,11 @@
         <v>0.54860451258886855</v>
       </c>
       <c r="E2" s="1" t="str" cm="1">
-        <f t="array" ref="E2">_xll.INTERP1.NEW.LINEAR(E1,A2:A6,B2:B6)</f>
-        <v>~Interp1~my.interp.linear~000001E079121FA0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <f t="array" aca="1" ref="E2" ca="1">_xll.INTERP1.NEW.LINEAR(E1,A2:A6,B2:B6)</f>
+        <v>~Interp1~my.interp.linear~000001B336D6CE90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -3362,7 +3364,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>5</v>
       </c>
@@ -3376,7 +3378,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>7</v>
       </c>
@@ -3387,11 +3389,11 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" cm="1">
-        <f t="array" ref="E5">_xll.INTERP1.GET(E2,E4)</f>
+        <f t="array" aca="1" ref="E5" ca="1">_xll.INTERP1.GET(E2,E4)</f>
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>9</v>
       </c>
@@ -3399,7 +3401,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -3407,733 +3409,813 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="2">
-        <f t="array" ref="B9:B89">_xll.INTERP1.GET(E2,A9:A89)</f>
-        <v>0.54860451258886855</v>
+      <c r="B9" s="2" t="e">
+        <f t="array" aca="1" ref="B9:B89" ca="1">_xll.INTERP1.GET(E2,A9:A89)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.55617428695942517</v>
+      <c r="B10" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1.2</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.56374406132998167</v>
+      <c r="B11" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1.3</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.57131383570053829</v>
+      <c r="B12" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>1.4</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.57888361007109479</v>
+      <c r="B13" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>1.5</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.5864533844416514</v>
+      <c r="B14" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1.6</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.59402315881220802</v>
+      <c r="B15" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1.7</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.60159293318276452</v>
+      <c r="B16" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1.8</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.60916270755332114</v>
+      <c r="B17" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1.9</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.61673248192387764</v>
+      <c r="B18" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.62430225629443425</v>
+      <c r="B19" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2.1</v>
       </c>
-      <c r="B20" s="2">
-        <v>0.63187203066499087</v>
+      <c r="B20" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B21" s="2">
-        <v>0.63944180503554737</v>
+      <c r="B21" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B22" s="2">
-        <v>0.64701157940610399</v>
+      <c r="B22" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2.4</v>
       </c>
-      <c r="B23" s="2">
-        <v>0.65458135377666049</v>
+      <c r="B23" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2.5</v>
       </c>
-      <c r="B24" s="2">
-        <v>0.66215112814721711</v>
+      <c r="B24" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2.6</v>
       </c>
-      <c r="B25" s="2">
-        <v>0.66972090251777372</v>
+      <c r="B25" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2.7</v>
       </c>
-      <c r="B26" s="2">
-        <v>0.67729067688833022</v>
+      <c r="B26" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>2.8</v>
       </c>
-      <c r="B27" s="2">
-        <v>0.68486045125888684</v>
+      <c r="B27" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>2.9</v>
       </c>
-      <c r="B28" s="2">
-        <v>0.69243022562944334</v>
+      <c r="B28" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>3</v>
       </c>
-      <c r="B29" s="2">
-        <v>0.7</v>
+      <c r="B29" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>3.1</v>
       </c>
-      <c r="B30" s="2">
-        <v>0.6865</v>
+      <c r="B30" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>3.2</v>
       </c>
-      <c r="B31" s="2">
-        <v>0.67299999999999993</v>
+      <c r="B31" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>3.3</v>
       </c>
-      <c r="B32" s="2">
-        <v>0.65949999999999998</v>
+      <c r="B32" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>3.4</v>
       </c>
-      <c r="B33" s="2">
-        <v>0.64600000000000002</v>
+      <c r="B33" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>3.5</v>
       </c>
-      <c r="B34" s="2">
-        <v>0.63249999999999995</v>
+      <c r="B34" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>3.6</v>
       </c>
-      <c r="B35" s="2">
-        <v>0.61899999999999999</v>
+      <c r="B35" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>3.7</v>
       </c>
-      <c r="B36" s="2">
-        <v>0.60549999999999993</v>
+      <c r="B36" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>3.8</v>
       </c>
-      <c r="B37" s="2">
-        <v>0.59199999999999997</v>
+      <c r="B37" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>3.9</v>
       </c>
-      <c r="B38" s="2">
-        <v>0.57850000000000001</v>
+      <c r="B38" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>4</v>
       </c>
-      <c r="B39" s="2">
-        <v>0.56499999999999995</v>
+      <c r="B39" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B40" s="2">
-        <v>0.55149999999999999</v>
+      <c r="B40" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>4.2</v>
       </c>
-      <c r="B41" s="2">
-        <v>0.53799999999999992</v>
+      <c r="B41" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>4.3</v>
       </c>
-      <c r="B42" s="2">
-        <v>0.52449999999999997</v>
+      <c r="B42" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B43" s="2">
-        <v>0.5109999999999999</v>
+      <c r="B43" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>4.5</v>
       </c>
-      <c r="B44" s="2">
-        <v>0.4975</v>
+      <c r="B44" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B45" s="2">
-        <v>0.48400000000000004</v>
+      <c r="B45" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>4.7</v>
       </c>
-      <c r="B46" s="2">
-        <v>0.47049999999999997</v>
+      <c r="B46" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>4.8</v>
       </c>
-      <c r="B47" s="2">
-        <v>0.45700000000000002</v>
+      <c r="B47" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B48" s="2">
-        <v>0.44349999999999995</v>
+      <c r="B48" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>5</v>
       </c>
-      <c r="B49" s="2">
-        <v>0.43</v>
+      <c r="B49" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B50" s="2">
-        <v>0.42499999999999999</v>
+      <c r="B50" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>5.2</v>
       </c>
-      <c r="B51" s="2">
-        <v>0.42</v>
+      <c r="B51" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>5.3</v>
       </c>
-      <c r="B52" s="2">
-        <v>0.41499999999999998</v>
+      <c r="B52" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>5.4</v>
       </c>
-      <c r="B53" s="2">
-        <v>0.41</v>
+      <c r="B53" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>5.5</v>
       </c>
-      <c r="B54" s="2">
-        <v>0.40500000000000003</v>
+      <c r="B54" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>5.6</v>
       </c>
-      <c r="B55" s="2">
-        <v>0.4</v>
+      <c r="B55" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>5.7</v>
       </c>
-      <c r="B56" s="2">
-        <v>0.39500000000000002</v>
+      <c r="B56" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>5.8</v>
       </c>
-      <c r="B57" s="2">
-        <v>0.39</v>
+      <c r="B57" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>5.9</v>
       </c>
-      <c r="B58" s="2">
-        <v>0.38500000000000001</v>
+      <c r="B58" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>6</v>
       </c>
-      <c r="B59" s="2">
-        <v>0.38</v>
+      <c r="B59" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>6.1</v>
       </c>
-      <c r="B60" s="2">
-        <v>0.375</v>
+      <c r="B60" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>6.2</v>
       </c>
-      <c r="B61" s="2">
-        <v>0.37</v>
+      <c r="B61" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>6.3</v>
       </c>
-      <c r="B62" s="2">
-        <v>0.36499999999999999</v>
+      <c r="B62" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>6.4</v>
       </c>
-      <c r="B63" s="2">
-        <v>0.36</v>
+      <c r="B63" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>6.5000000000000098</v>
       </c>
-      <c r="B64" s="2">
-        <v>0.35499999999999954</v>
+      <c r="B64" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>6.6</v>
       </c>
-      <c r="B65" s="2">
-        <v>0.35000000000000003</v>
+      <c r="B65" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>6.7</v>
       </c>
-      <c r="B66" s="2">
-        <v>0.34499999999999997</v>
+      <c r="B66" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>6.8000000000000096</v>
       </c>
-      <c r="B67" s="2">
-        <v>0.33999999999999952</v>
+      <c r="B67" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>6.9000000000000101</v>
       </c>
-      <c r="B68" s="2">
-        <v>0.33499999999999952</v>
+      <c r="B68" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>7.0000000000000098</v>
       </c>
-      <c r="B69" s="2">
-        <v>0.33000000000000279</v>
+      <c r="B69" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>7.1</v>
       </c>
-      <c r="B70" s="2">
-        <v>0.35849999999999993</v>
+      <c r="B70" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>7.2000000000000099</v>
       </c>
-      <c r="B71" s="2">
-        <v>0.38700000000000284</v>
+      <c r="B71" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>7.3000000000000096</v>
       </c>
-      <c r="B72" s="2">
-        <v>0.41550000000000276</v>
+      <c r="B72" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>7.4000000000000101</v>
       </c>
-      <c r="B73" s="2">
-        <v>0.44400000000000295</v>
+      <c r="B73" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>7.5000000000000098</v>
       </c>
-      <c r="B74" s="2">
-        <v>0.47250000000000281</v>
+      <c r="B74" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>7.6000000000000103</v>
       </c>
-      <c r="B75" s="2">
-        <v>0.501000000000003</v>
+      <c r="B75" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>7.7000000000000099</v>
       </c>
-      <c r="B76" s="2">
-        <v>0.52950000000000286</v>
+      <c r="B76" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>7.8000000000000096</v>
       </c>
-      <c r="B77" s="2">
-        <v>0.55800000000000272</v>
+      <c r="B77" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>7.9000000000000101</v>
       </c>
-      <c r="B78" s="2">
-        <v>0.58650000000000291</v>
+      <c r="B78" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>8.0000000000000107</v>
       </c>
-      <c r="B79" s="2">
-        <v>0.6150000000000031</v>
+      <c r="B79" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>8.1000000000000103</v>
       </c>
-      <c r="B80" s="2">
-        <v>0.64350000000000296</v>
+      <c r="B80" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>8.2000000000000099</v>
       </c>
-      <c r="B81" s="2">
-        <v>0.67200000000000282</v>
+      <c r="B81" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>8.3000000000000096</v>
       </c>
-      <c r="B82" s="2">
-        <v>0.70050000000000279</v>
+      <c r="B82" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>8.4000000000000092</v>
       </c>
-      <c r="B83" s="2">
-        <v>0.72900000000000276</v>
+      <c r="B83" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>8.5000000000000107</v>
       </c>
-      <c r="B84" s="2">
-        <v>0.75750000000000317</v>
+      <c r="B84" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>8.6000000000000103</v>
       </c>
-      <c r="B85" s="2">
-        <v>0.78600000000000292</v>
+      <c r="B85" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>8.7000000000000099</v>
       </c>
-      <c r="B86" s="2">
-        <v>0.81450000000000289</v>
+      <c r="B86" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>8.8000000000000096</v>
       </c>
-      <c r="B87" s="2">
-        <v>0.84300000000000286</v>
+      <c r="B87" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>8.9000000000000092</v>
       </c>
-      <c r="B88" s="2">
-        <v>0.87150000000000261</v>
+      <c r="B88" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>9.0000000000000107</v>
       </c>
-      <c r="B89" s="2">
-        <v>0.9</v>
+      <c r="B89" s="2" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C89" s="2"/>
     </row>
@@ -4151,20 +4233,20 @@
   <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="101.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4187,7 +4269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4196,7 +4278,7 @@
       </c>
       <c r="E2" s="1" t="str" cm="1">
         <f t="array" ref="E2">_xll.INTERP1.NEW.CUBIC(E1,A2:A6,B2:B6,H2:H3,I2:I3)</f>
-        <v>~Interp1~my.interp.cubic~000001E07C776EA0</v>
+        <v>~Interp1~my.interp.cubic~000001B2AB3F2670</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4205,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -4219,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>5</v>
       </c>
@@ -4233,7 +4315,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>7</v>
       </c>
@@ -4248,7 +4330,7 @@
         <v>0.30957465847962218</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>9</v>
       </c>
@@ -4256,10 +4338,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -4267,7 +4349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -4276,7 +4358,7 @@
         <v>0.54860451258886855</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -4284,7 +4366,7 @@
         <v>0.56199089854905826</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1.2</v>
       </c>
@@ -4292,7 +4374,7 @@
         <v>0.57528981666579471</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>1.3</v>
       </c>
@@ -4300,7 +4382,7 @@
         <v>0.58841379909562497</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>1.4</v>
       </c>
@@ -4308,7 +4390,7 @@
         <v>0.60127537799509578</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1.5</v>
       </c>
@@ -4316,7 +4398,7 @@
         <v>0.61378708552075423</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1.6</v>
       </c>
@@ -4324,7 +4406,7 @@
         <v>0.62586145382914704</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1.7</v>
       </c>
@@ -4332,7 +4414,7 @@
         <v>0.63741101507682085</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1.8</v>
       </c>
@@ -4340,7 +4422,7 @@
         <v>0.64834830142032285</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>1.9</v>
       </c>
@@ -4348,7 +4430,7 @@
         <v>0.65858584501619999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2</v>
       </c>
@@ -4356,7 +4438,7 @@
         <v>0.66803617802099879</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2.1</v>
       </c>
@@ -4364,7 +4446,7 @@
         <v>0.67661183259126645</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -4372,7 +4454,7 @@
         <v>0.68422534088354947</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2.2999999999999998</v>
       </c>
@@ -4380,7 +4462,7 @@
         <v>0.69078923505439505</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2.4</v>
       </c>
@@ -4388,7 +4470,7 @@
         <v>0.69621604726034991</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2.5</v>
       </c>
@@ -4396,7 +4478,7 @@
         <v>0.70041830965796092</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2.6</v>
       </c>
@@ -4404,7 +4486,7 @@
         <v>0.70330855440377515</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>2.7</v>
       </c>
@@ -4412,7 +4494,7 @@
         <v>0.70479931365433934</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>2.8</v>
       </c>
@@ -4420,7 +4502,7 @@
         <v>0.70480311956620023</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>2.9</v>
       </c>
@@ -4428,7 +4510,7 @@
         <v>0.70323250429590478</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>3</v>
       </c>
@@ -4436,7 +4518,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>3.1</v>
       </c>
@@ -4444,7 +4526,7 @@
         <v>0.69505293224255915</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>3.2</v>
       </c>
@@ -4452,7 +4534,7 @@
         <v>0.68847780021776317</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>3.3</v>
       </c>
@@ -4460,7 +4542,7 @@
         <v>0.68039589652731924</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>3.4</v>
       </c>
@@ -4468,7 +4550,7 @@
         <v>0.6709285137729345</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>3.5</v>
       </c>
@@ -4476,7 +4558,7 @@
         <v>0.6601969445563165</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>3.6</v>
       </c>
@@ -4484,7 +4566,7 @@
         <v>0.64832248147917237</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>3.7</v>
       </c>
@@ -4492,7 +4574,7 @@
         <v>0.63542641714320935</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>3.8</v>
       </c>
@@ -4500,7 +4582,7 @@
         <v>0.6216300441501349</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>3.9</v>
       </c>
@@ -4508,7 +4590,7 @@
         <v>0.60705465510165624</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>4</v>
       </c>
@@ -4516,7 +4598,7 @@
         <v>0.59182154259948061</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>4.0999999999999996</v>
       </c>
@@ -4524,7 +4606,7 @@
         <v>0.57605199924531558</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>4.2</v>
       </c>
@@ -4532,7 +4614,7 @@
         <v>0.55986731764086783</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>4.3</v>
       </c>
@@ -4540,7 +4622,7 @@
         <v>0.54338879038784538</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>4.4000000000000004</v>
       </c>
@@ -4548,7 +4630,7 @@
         <v>0.526737710087955</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>4.5</v>
       </c>
@@ -4556,7 +4638,7 @@
         <v>0.51003536934290439</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>4.5999999999999996</v>
       </c>
@@ -4564,7 +4646,7 @@
         <v>0.49340306075440066</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>4.7</v>
       </c>
@@ -4572,7 +4654,7 @@
         <v>0.47696207692415094</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>4.8</v>
       </c>
@@ -4580,7 +4662,7 @@
         <v>0.46083371045386279</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>4.9000000000000004</v>
       </c>
@@ -4588,7 +4670,7 @@
         <v>0.44513925394524329</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>5</v>
       </c>
@@ -4596,7 +4678,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>5.0999999999999996</v>
       </c>
@@ -4604,7 +4686,7 @@
         <v>0.41552466646158592</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>5.2</v>
       </c>
@@ -4612,7 +4694,7 @@
         <v>0.40177167214043724</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>5.3</v>
       </c>
@@ -4620,7 +4702,7 @@
         <v>0.38878686108873672</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>5.4</v>
       </c>
@@ -4628,7 +4710,7 @@
         <v>0.37661607735866626</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>5.5</v>
       </c>
@@ -4636,7 +4718,7 @@
         <v>0.36530516500240851</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>5.6</v>
       </c>
@@ -4644,7 +4726,7 @@
         <v>0.35489996807214547</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>5.7</v>
       </c>
@@ -4652,7 +4734,7 @@
         <v>0.34544633062005947</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>5.8</v>
       </c>
@@ -4660,7 +4742,7 @@
         <v>0.33699009669833291</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>5.9</v>
       </c>
@@ -4668,7 +4750,7 @@
         <v>0.32957711035914805</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>6</v>
       </c>
@@ -4676,7 +4758,7 @@
         <v>0.32325321565468712</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>6.1</v>
       </c>
@@ -4684,7 +4766,7 @@
         <v>0.31806425663713245</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>6.2</v>
       </c>
@@ -4692,7 +4774,7 @@
         <v>0.31405607735866631</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>6.3</v>
       </c>
@@ -4700,7 +4782,7 @@
         <v>0.31127452187147103</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>6.4</v>
       </c>
@@ -4708,7 +4790,7 @@
         <v>0.3097654342277289</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>6.5000000000000098</v>
       </c>
@@ -4716,7 +4798,7 @@
         <v>0.30957465847962223</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>6.6</v>
       </c>
@@ -4724,7 +4806,7 @@
         <v>0.31074803867933315</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>6.7</v>
       </c>
@@ -4732,7 +4814,7 @@
         <v>0.31333141887904414</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>6.8000000000000096</v>
       </c>
@@ -4740,7 +4822,7 @@
         <v>0.31737064313093788</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>6.9000000000000101</v>
       </c>
@@ -4748,7 +4830,7 @@
         <v>0.32291155548719591</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>7.0000000000000098</v>
       </c>
@@ -4756,7 +4838,7 @@
         <v>0.33000000000000079</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>7.1</v>
       </c>
@@ -4764,7 +4846,7 @@
         <v>0.33866090191109738</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>7.2000000000000099</v>
       </c>
@@ -4772,7 +4854,7 @@
         <v>0.34883551122048867</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>7.3000000000000096</v>
       </c>
@@ -4780,7 +4862,7 @@
         <v>0.36044415911773514</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>7.4000000000000101</v>
       </c>
@@ -4788,7 +4870,7 @@
         <v>0.37340717679240154</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>7.5000000000000098</v>
       </c>
@@ -4796,7 +4878,7 @@
         <v>0.38764489543405101</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>7.6000000000000103</v>
       </c>
@@ -4804,7 +4886,7 @@
         <v>0.40307764623224768</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>7.7000000000000099</v>
       </c>
@@ -4812,7 +4894,7 @@
         <v>0.41962576037655441</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>7.8000000000000096</v>
       </c>
@@ -4820,7 +4902,7 @@
         <v>0.43720956905653519</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>7.9000000000000101</v>
       </c>
@@ -4828,7 +4910,7 @@
         <v>0.45574940346175358</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>8.0000000000000107</v>
       </c>
@@ -4836,7 +4918,7 @@
         <v>0.475165594781773</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>8.1000000000000103</v>
       </c>
@@ -4844,7 +4926,7 @@
         <v>0.49537847420615688</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>8.2000000000000099</v>
       </c>
@@ -4852,7 +4934,7 @@
         <v>0.51630837292446885</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>8.3000000000000096</v>
       </c>
@@ -4860,7 +4942,7 @@
         <v>0.53787562212627249</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>8.4000000000000092</v>
       </c>
@@ -4868,7 +4950,7 @@
         <v>0.56000055300113138</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>8.5000000000000107</v>
       </c>
@@ -4876,7 +4958,7 @@
         <v>0.58260349673860923</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>8.6000000000000103</v>
       </c>
@@ -4884,7 +4966,7 @@
         <v>0.60560478452826916</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>8.7000000000000099</v>
       </c>
@@ -4892,7 +4974,7 @@
         <v>0.62892474755967465</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>8.8000000000000096</v>
       </c>
@@ -4900,7 +4982,7 @@
         <v>0.65248371702238983</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>8.9000000000000092</v>
       </c>
@@ -4908,7 +4990,7 @@
         <v>0.67620202410597774</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="2"/>
     </row>
@@ -4924,20 +5006,20 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AA47" sqref="AA47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="6" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="36.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -4963,7 +5045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4982,12 +5064,12 @@
       <c r="F2" s="2">
         <v>6.2349232617800676E-2</v>
       </c>
-      <c r="I2" s="1" t="str">
-        <f t="array" aca="1" ref="I2" ca="1">_xll.INTERP2.NEW.LINEAR(I1,A2:A6,B1:F1,B2:F6)</f>
-        <v>~Interp2~my.interp2d.linear~0000011CA3DBE8D0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I2" s="1" t="str" cm="1">
+        <f t="array" ref="I2">_xll.INTERP2.NEW.LINEAR(I1,A2:A6,B1:F1,B2:F6)</f>
+        <v>~Interp2~my.interp2d.linear~000001B3371A5F60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -5007,7 +5089,7 @@
         <v>0.87991373151481767</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -5033,7 +5115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -5059,7 +5141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -5082,11 +5164,11 @@
         <v>17</v>
       </c>
       <c r="I6" s="2" cm="1">
-        <f t="array" aca="1" ref="I6" ca="1">_xll.INTERP2.GET(I2,I4,I5)</f>
+        <f t="array" ref="I6">_xll.INTERP2.GET(I2,I4,I5)</f>
         <v>0.13426169853642655</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -5118,372 +5200,292 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <f t="array" aca="1" ref="B12:J20" ca="1">_xll.INTERP2.GET(I2,A12:A20,B11:J11)</f>
+        <f t="array" ref="B12:J20">_xll.INTERP2.GET(I2,A12:A20,B11:J11)</f>
         <v>0.16585158168944869</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1"/>
         <v>0.27239882252426922</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1"/>
         <v>0.37894606335908976</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1"/>
         <v>0.67105103244781472</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1"/>
         <v>0.9631560015365398</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1"/>
         <v>0.86498235605730067</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1"/>
         <v>0.76680871057806166</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1"/>
         <v>0.41457897159793117</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1"/>
         <v>6.2349232617800676E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1"/>
         <v>0.20680710753856474</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1"/>
         <v>0.23170549424316145</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1"/>
         <v>0.25660388094775816</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1"/>
         <v>0.51028864066260571</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1"/>
         <v>0.76397340037745332</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1"/>
         <v>0.61592205277465117</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1"/>
         <v>0.4678707051718492</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1"/>
         <v>0.46950109361907921</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1"/>
         <v>0.47113148206630917</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1"/>
         <v>0.24776263338768079</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1"/>
         <v>0.19101216596205367</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1"/>
         <v>0.13426169853642655</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1"/>
         <v>0.34952624887739669</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1"/>
         <v>0.56479079921836683</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1"/>
         <v>0.36686174949200179</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1"/>
         <v>0.16893269976563674</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1"/>
         <v>0.5244232156402272</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1"/>
         <v>0.87991373151481767</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1"/>
         <v>0.42858618067714443</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1"/>
         <v>0.38417486263143785</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1"/>
         <v>0.33976354458573133</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1"/>
         <v>0.39638395191899944</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1"/>
         <v>0.45300435925226762</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1"/>
         <v>0.27500154114926223</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1"/>
         <v>9.6998723046256785E-2</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1"/>
         <v>0.34319023103126611</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1"/>
         <v>0.58938173901627544</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1"/>
         <v>0.60940972796660808</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1"/>
         <v>0.57733755930082209</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1"/>
         <v>0.5452653906350361</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1"/>
         <v>0.44324165496060225</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1"/>
         <v>0.3412179192861684</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1"/>
         <v>0.18314133280652262</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1"/>
         <v>2.506474632687683E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1"/>
         <v>0.16195724642230508</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1"/>
         <v>0.29884974651773333</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6</v>
       </c>
       <c r="B17" s="2">
-        <f ca="1"/>
         <v>0.3654542077862083</v>
       </c>
       <c r="C17" s="2">
-        <f ca="1"/>
         <v>0.33037164500905114</v>
       </c>
       <c r="D17" s="2">
-        <f ca="1"/>
         <v>0.29528908223189393</v>
       </c>
       <c r="E17" s="2">
-        <f ca="1"/>
         <v>0.32473538691701676</v>
       </c>
       <c r="F17" s="2">
-        <f ca="1"/>
         <v>0.35418169160213958</v>
       </c>
       <c r="G17" s="2">
-        <f ca="1"/>
         <v>0.23520861677395136</v>
       </c>
       <c r="H17" s="2">
-        <f ca="1"/>
         <v>0.11623554194576313</v>
       </c>
       <c r="I17" s="2">
-        <f ca="1"/>
         <v>0.3053989801825947</v>
       </c>
       <c r="J17" s="2">
-        <f ca="1"/>
         <v>0.49456241841942628</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7</v>
       </c>
       <c r="B18" s="2">
-        <f ca="1"/>
         <v>0.12149868760580851</v>
       </c>
       <c r="C18" s="2">
-        <f ca="1"/>
         <v>8.3405730717280135E-2</v>
       </c>
       <c r="D18" s="2">
-        <f ca="1"/>
         <v>4.5312773828751762E-2</v>
       </c>
       <c r="E18" s="2">
-        <f ca="1"/>
         <v>0.20622911887343126</v>
       </c>
       <c r="F18" s="2">
-        <f ca="1"/>
         <v>0.36714546391811076</v>
       </c>
       <c r="G18" s="2">
-        <f ca="1"/>
         <v>0.2872759007413801</v>
       </c>
       <c r="H18" s="2">
-        <f ca="1"/>
         <v>0.20740633756464943</v>
       </c>
       <c r="I18" s="2">
-        <f ca="1"/>
         <v>0.44884071394288433</v>
       </c>
       <c r="J18" s="2">
-        <f ca="1"/>
         <v>0.69027509032111922</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8</v>
       </c>
       <c r="B19" s="2">
-        <f ca="1"/>
         <v>0.42092923340898453</v>
       </c>
       <c r="C19" s="2">
-        <f ca="1"/>
         <v>0.2785047239338273</v>
       </c>
       <c r="D19" s="2">
-        <f ca="1"/>
         <v>0.13608021445867008</v>
       </c>
       <c r="E19" s="2">
-        <f ca="1"/>
         <v>0.34175136482609714</v>
       </c>
       <c r="F19" s="2">
-        <f ca="1"/>
         <v>0.54742251519352414</v>
       </c>
       <c r="G19" s="2">
-        <f ca="1"/>
         <v>0.37457321996283893</v>
       </c>
       <c r="H19" s="2">
-        <f ca="1"/>
         <v>0.20172392473215367</v>
       </c>
       <c r="I19" s="2">
-        <f ca="1"/>
         <v>0.50576421389694015</v>
       </c>
       <c r="J19" s="2">
-        <f ca="1"/>
         <v>0.80980450306172658</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>9</v>
       </c>
       <c r="B20" s="2">
-        <f ca="1"/>
         <v>0.72035977921216054</v>
       </c>
       <c r="C20" s="2">
-        <f ca="1"/>
         <v>0.47360371715037447</v>
       </c>
       <c r="D20" s="2">
-        <f ca="1"/>
         <v>0.2268476550885884</v>
       </c>
       <c r="E20" s="2">
-        <f ca="1"/>
         <v>0.47727361077876301</v>
       </c>
       <c r="F20" s="2">
-        <f ca="1"/>
         <v>0.72769956646893763</v>
       </c>
       <c r="G20" s="2">
-        <f ca="1"/>
         <v>0.46187053918429777</v>
       </c>
       <c r="H20" s="2">
-        <f ca="1"/>
         <v>0.19604151189965791</v>
       </c>
       <c r="I20" s="2">
-        <f ca="1"/>
         <v>0.56268771385099592</v>
       </c>
       <c r="J20" s="2">
-        <f ca="1"/>
         <v>0.92933391580233393</v>
       </c>
     </row>

--- a/miscs/excel/001.interpolation.xlsx
+++ b/miscs/excel/001.interpolation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wegam\github\Derivatives-Algorithms-Lib\miscs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC349FE9-58AA-48A2-B97C-D39BF9A8D4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD3C7DF-1F82-4729-AB2C-83A7ECEB7EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{A658F64F-54DB-47F5-8888-F8582537DD58}"/>
   </bookViews>
@@ -569,247 +569,247 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.54860451258886855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.55617428695942517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.56374406132998167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.57131383570053829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.57888361007109479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.5864533844416514</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.59402315881220802</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.60159293318276452</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.60916270755332114</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.61673248192387764</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.62430225629443425</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.63187203066499087</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.63944180503554737</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.64701157940610399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.65458135377666049</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.66215112814721711</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.66972090251777372</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.67729067688833022</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.68486045125888684</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.69243022562944334</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.6865</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.67299999999999993</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.65949999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.64600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.63249999999999995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.61899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.60549999999999993</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.59199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.57850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.56499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.55149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.53799999999999992</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.52449999999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.5109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.4975</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.48400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>0.47049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>0.45700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>0.44349999999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>0.41499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>0.40500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>0.39500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>0.38500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>0.36499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>0.35499999999999954</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>0.35000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>0.34499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>0.33999999999999952</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>0.33499999999999952</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>0.33000000000000279</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>0.35849999999999993</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>0.38700000000000284</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>0.41550000000000276</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>0.44400000000000295</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>0.47250000000000281</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>0.501000000000003</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>0.52950000000000286</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>0.55800000000000272</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>0.58650000000000291</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>0.6150000000000031</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>0.64350000000000296</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>0.67200000000000282</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>0.70050000000000279</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>0.72900000000000276</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>0.75750000000000317</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>0.78600000000000292</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>0.81450000000000289</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>0.84300000000000286</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>0.87150000000000261</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3315,7 +3315,7 @@
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3352,8 +3352,8 @@
         <v>0.54860451258886855</v>
       </c>
       <c r="E2" s="1" t="str" cm="1">
-        <f t="array" aca="1" ref="E2" ca="1">_xll.INTERP1.NEW.LINEAR(E1,A2:A6,B2:B6)</f>
-        <v>~Interp1~my.interp.linear~000001B336D6CE90</v>
+        <f t="array" ref="E2">_xll.INTERP1.NEW.LINEAR(E1,A2:A6,B2:B6)</f>
+        <v>~Interp1~my.interp.linear~000001AE30583240</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3389,7 +3389,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" cm="1">
-        <f t="array" aca="1" ref="E5" ca="1">_xll.INTERP1.GET(E2,E4)</f>
+        <f t="array" ref="E5">_xll.INTERP1.GET(E2,E4)</f>
         <v>0.35499999999999998</v>
       </c>
     </row>
@@ -3413,9 +3413,9 @@
       <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="e">
-        <f t="array" aca="1" ref="B9:B89" ca="1">_xll.INTERP1.GET(E2,A9:A89)</f>
-        <v>#VALUE!</v>
+      <c r="B9" s="2">
+        <f t="array" ref="B9:B89">_xll.INTERP1.GET(E2,A9:A89)</f>
+        <v>0.54860451258886855</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -3423,9 +3423,8 @@
       <c r="A10" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B10" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B10" s="2">
+        <v>0.55617428695942517</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -3433,9 +3432,8 @@
       <c r="A11" s="5">
         <v>1.2</v>
       </c>
-      <c r="B11" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B11" s="2">
+        <v>0.56374406132998167</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -3443,9 +3441,8 @@
       <c r="A12" s="5">
         <v>1.3</v>
       </c>
-      <c r="B12" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B12" s="2">
+        <v>0.57131383570053829</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -3453,9 +3450,8 @@
       <c r="A13" s="5">
         <v>1.4</v>
       </c>
-      <c r="B13" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B13" s="2">
+        <v>0.57888361007109479</v>
       </c>
       <c r="C13" s="2"/>
     </row>
@@ -3463,9 +3459,8 @@
       <c r="A14" s="5">
         <v>1.5</v>
       </c>
-      <c r="B14" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B14" s="2">
+        <v>0.5864533844416514</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -3473,9 +3468,8 @@
       <c r="A15" s="5">
         <v>1.6</v>
       </c>
-      <c r="B15" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B15" s="2">
+        <v>0.59402315881220802</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -3483,9 +3477,8 @@
       <c r="A16" s="5">
         <v>1.7</v>
       </c>
-      <c r="B16" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B16" s="2">
+        <v>0.60159293318276452</v>
       </c>
       <c r="C16" s="2"/>
     </row>
@@ -3493,9 +3486,8 @@
       <c r="A17" s="5">
         <v>1.8</v>
       </c>
-      <c r="B17" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B17" s="2">
+        <v>0.60916270755332114</v>
       </c>
       <c r="C17" s="2"/>
     </row>
@@ -3503,9 +3495,8 @@
       <c r="A18" s="5">
         <v>1.9</v>
       </c>
-      <c r="B18" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B18" s="2">
+        <v>0.61673248192387764</v>
       </c>
       <c r="C18" s="2"/>
     </row>
@@ -3513,9 +3504,8 @@
       <c r="A19" s="5">
         <v>2</v>
       </c>
-      <c r="B19" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B19" s="2">
+        <v>0.62430225629443425</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -3523,9 +3513,8 @@
       <c r="A20" s="5">
         <v>2.1</v>
       </c>
-      <c r="B20" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B20" s="2">
+        <v>0.63187203066499087</v>
       </c>
       <c r="C20" s="2"/>
     </row>
@@ -3533,9 +3522,8 @@
       <c r="A21" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B21" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B21" s="2">
+        <v>0.63944180503554737</v>
       </c>
       <c r="C21" s="2"/>
     </row>
@@ -3543,9 +3531,8 @@
       <c r="A22" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B22" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B22" s="2">
+        <v>0.64701157940610399</v>
       </c>
       <c r="C22" s="2"/>
     </row>
@@ -3553,9 +3540,8 @@
       <c r="A23" s="5">
         <v>2.4</v>
       </c>
-      <c r="B23" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B23" s="2">
+        <v>0.65458135377666049</v>
       </c>
       <c r="C23" s="2"/>
     </row>
@@ -3563,9 +3549,8 @@
       <c r="A24" s="5">
         <v>2.5</v>
       </c>
-      <c r="B24" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B24" s="2">
+        <v>0.66215112814721711</v>
       </c>
       <c r="C24" s="2"/>
     </row>
@@ -3573,9 +3558,8 @@
       <c r="A25" s="5">
         <v>2.6</v>
       </c>
-      <c r="B25" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B25" s="2">
+        <v>0.66972090251777372</v>
       </c>
       <c r="C25" s="2"/>
     </row>
@@ -3583,9 +3567,8 @@
       <c r="A26" s="5">
         <v>2.7</v>
       </c>
-      <c r="B26" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B26" s="2">
+        <v>0.67729067688833022</v>
       </c>
       <c r="C26" s="2"/>
     </row>
@@ -3593,9 +3576,8 @@
       <c r="A27" s="5">
         <v>2.8</v>
       </c>
-      <c r="B27" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B27" s="2">
+        <v>0.68486045125888684</v>
       </c>
       <c r="C27" s="2"/>
     </row>
@@ -3603,9 +3585,8 @@
       <c r="A28" s="5">
         <v>2.9</v>
       </c>
-      <c r="B28" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B28" s="2">
+        <v>0.69243022562944334</v>
       </c>
       <c r="C28" s="2"/>
     </row>
@@ -3613,9 +3594,8 @@
       <c r="A29" s="5">
         <v>3</v>
       </c>
-      <c r="B29" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B29" s="2">
+        <v>0.7</v>
       </c>
       <c r="C29" s="2"/>
     </row>
@@ -3623,9 +3603,8 @@
       <c r="A30" s="5">
         <v>3.1</v>
       </c>
-      <c r="B30" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B30" s="2">
+        <v>0.6865</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -3633,9 +3612,8 @@
       <c r="A31" s="5">
         <v>3.2</v>
       </c>
-      <c r="B31" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B31" s="2">
+        <v>0.67299999999999993</v>
       </c>
       <c r="C31" s="2"/>
     </row>
@@ -3643,9 +3621,8 @@
       <c r="A32" s="5">
         <v>3.3</v>
       </c>
-      <c r="B32" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B32" s="2">
+        <v>0.65949999999999998</v>
       </c>
       <c r="C32" s="2"/>
     </row>
@@ -3653,9 +3630,8 @@
       <c r="A33" s="5">
         <v>3.4</v>
       </c>
-      <c r="B33" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B33" s="2">
+        <v>0.64600000000000002</v>
       </c>
       <c r="C33" s="2"/>
     </row>
@@ -3663,9 +3639,8 @@
       <c r="A34" s="5">
         <v>3.5</v>
       </c>
-      <c r="B34" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B34" s="2">
+        <v>0.63249999999999995</v>
       </c>
       <c r="C34" s="2"/>
     </row>
@@ -3673,9 +3648,8 @@
       <c r="A35" s="5">
         <v>3.6</v>
       </c>
-      <c r="B35" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B35" s="2">
+        <v>0.61899999999999999</v>
       </c>
       <c r="C35" s="2"/>
     </row>
@@ -3683,9 +3657,8 @@
       <c r="A36" s="5">
         <v>3.7</v>
       </c>
-      <c r="B36" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B36" s="2">
+        <v>0.60549999999999993</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -3693,9 +3666,8 @@
       <c r="A37" s="5">
         <v>3.8</v>
       </c>
-      <c r="B37" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B37" s="2">
+        <v>0.59199999999999997</v>
       </c>
       <c r="C37" s="2"/>
     </row>
@@ -3703,9 +3675,8 @@
       <c r="A38" s="5">
         <v>3.9</v>
       </c>
-      <c r="B38" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B38" s="2">
+        <v>0.57850000000000001</v>
       </c>
       <c r="C38" s="2"/>
     </row>
@@ -3713,9 +3684,8 @@
       <c r="A39" s="5">
         <v>4</v>
       </c>
-      <c r="B39" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B39" s="2">
+        <v>0.56499999999999995</v>
       </c>
       <c r="C39" s="2"/>
     </row>
@@ -3723,9 +3693,8 @@
       <c r="A40" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B40" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B40" s="2">
+        <v>0.55149999999999999</v>
       </c>
       <c r="C40" s="2"/>
     </row>
@@ -3733,9 +3702,8 @@
       <c r="A41" s="5">
         <v>4.2</v>
       </c>
-      <c r="B41" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B41" s="2">
+        <v>0.53799999999999992</v>
       </c>
       <c r="C41" s="2"/>
     </row>
@@ -3743,9 +3711,8 @@
       <c r="A42" s="5">
         <v>4.3</v>
       </c>
-      <c r="B42" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B42" s="2">
+        <v>0.52449999999999997</v>
       </c>
       <c r="C42" s="2"/>
     </row>
@@ -3753,9 +3720,8 @@
       <c r="A43" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B43" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B43" s="2">
+        <v>0.5109999999999999</v>
       </c>
       <c r="C43" s="2"/>
     </row>
@@ -3763,9 +3729,8 @@
       <c r="A44" s="5">
         <v>4.5</v>
       </c>
-      <c r="B44" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B44" s="2">
+        <v>0.4975</v>
       </c>
       <c r="C44" s="2"/>
     </row>
@@ -3773,9 +3738,8 @@
       <c r="A45" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B45" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B45" s="2">
+        <v>0.48400000000000004</v>
       </c>
       <c r="C45" s="2"/>
     </row>
@@ -3783,9 +3747,8 @@
       <c r="A46" s="5">
         <v>4.7</v>
       </c>
-      <c r="B46" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B46" s="2">
+        <v>0.47049999999999997</v>
       </c>
       <c r="C46" s="2"/>
     </row>
@@ -3793,9 +3756,8 @@
       <c r="A47" s="5">
         <v>4.8</v>
       </c>
-      <c r="B47" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B47" s="2">
+        <v>0.45700000000000002</v>
       </c>
       <c r="C47" s="2"/>
     </row>
@@ -3803,9 +3765,8 @@
       <c r="A48" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B48" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B48" s="2">
+        <v>0.44349999999999995</v>
       </c>
       <c r="C48" s="2"/>
     </row>
@@ -3813,9 +3774,8 @@
       <c r="A49" s="5">
         <v>5</v>
       </c>
-      <c r="B49" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B49" s="2">
+        <v>0.43</v>
       </c>
       <c r="C49" s="2"/>
     </row>
@@ -3823,9 +3783,8 @@
       <c r="A50" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B50" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B50" s="2">
+        <v>0.42499999999999999</v>
       </c>
       <c r="C50" s="2"/>
     </row>
@@ -3833,9 +3792,8 @@
       <c r="A51" s="5">
         <v>5.2</v>
       </c>
-      <c r="B51" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B51" s="2">
+        <v>0.42</v>
       </c>
       <c r="C51" s="2"/>
     </row>
@@ -3843,9 +3801,8 @@
       <c r="A52" s="5">
         <v>5.3</v>
       </c>
-      <c r="B52" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B52" s="2">
+        <v>0.41499999999999998</v>
       </c>
       <c r="C52" s="2"/>
     </row>
@@ -3853,9 +3810,8 @@
       <c r="A53" s="5">
         <v>5.4</v>
       </c>
-      <c r="B53" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B53" s="2">
+        <v>0.41</v>
       </c>
       <c r="C53" s="2"/>
     </row>
@@ -3863,9 +3819,8 @@
       <c r="A54" s="5">
         <v>5.5</v>
       </c>
-      <c r="B54" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B54" s="2">
+        <v>0.40500000000000003</v>
       </c>
       <c r="C54" s="2"/>
     </row>
@@ -3873,9 +3828,8 @@
       <c r="A55" s="5">
         <v>5.6</v>
       </c>
-      <c r="B55" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B55" s="2">
+        <v>0.4</v>
       </c>
       <c r="C55" s="2"/>
     </row>
@@ -3883,9 +3837,8 @@
       <c r="A56" s="5">
         <v>5.7</v>
       </c>
-      <c r="B56" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B56" s="2">
+        <v>0.39500000000000002</v>
       </c>
       <c r="C56" s="2"/>
     </row>
@@ -3893,9 +3846,8 @@
       <c r="A57" s="5">
         <v>5.8</v>
       </c>
-      <c r="B57" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B57" s="2">
+        <v>0.39</v>
       </c>
       <c r="C57" s="2"/>
     </row>
@@ -3903,9 +3855,8 @@
       <c r="A58" s="5">
         <v>5.9</v>
       </c>
-      <c r="B58" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B58" s="2">
+        <v>0.38500000000000001</v>
       </c>
       <c r="C58" s="2"/>
     </row>
@@ -3913,9 +3864,8 @@
       <c r="A59" s="5">
         <v>6</v>
       </c>
-      <c r="B59" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B59" s="2">
+        <v>0.38</v>
       </c>
       <c r="C59" s="2"/>
     </row>
@@ -3923,9 +3873,8 @@
       <c r="A60" s="5">
         <v>6.1</v>
       </c>
-      <c r="B60" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B60" s="2">
+        <v>0.375</v>
       </c>
       <c r="C60" s="2"/>
     </row>
@@ -3933,9 +3882,8 @@
       <c r="A61" s="5">
         <v>6.2</v>
       </c>
-      <c r="B61" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B61" s="2">
+        <v>0.37</v>
       </c>
       <c r="C61" s="2"/>
     </row>
@@ -3943,9 +3891,8 @@
       <c r="A62" s="5">
         <v>6.3</v>
       </c>
-      <c r="B62" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B62" s="2">
+        <v>0.36499999999999999</v>
       </c>
       <c r="C62" s="2"/>
     </row>
@@ -3953,9 +3900,8 @@
       <c r="A63" s="5">
         <v>6.4</v>
       </c>
-      <c r="B63" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B63" s="2">
+        <v>0.36</v>
       </c>
       <c r="C63" s="2"/>
     </row>
@@ -3963,9 +3909,8 @@
       <c r="A64" s="5">
         <v>6.5000000000000098</v>
       </c>
-      <c r="B64" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B64" s="2">
+        <v>0.35499999999999954</v>
       </c>
       <c r="C64" s="2"/>
     </row>
@@ -3973,9 +3918,8 @@
       <c r="A65" s="5">
         <v>6.6</v>
       </c>
-      <c r="B65" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B65" s="2">
+        <v>0.35000000000000003</v>
       </c>
       <c r="C65" s="2"/>
     </row>
@@ -3983,9 +3927,8 @@
       <c r="A66" s="5">
         <v>6.7</v>
       </c>
-      <c r="B66" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B66" s="2">
+        <v>0.34499999999999997</v>
       </c>
       <c r="C66" s="2"/>
     </row>
@@ -3993,9 +3936,8 @@
       <c r="A67" s="5">
         <v>6.8000000000000096</v>
       </c>
-      <c r="B67" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B67" s="2">
+        <v>0.33999999999999952</v>
       </c>
       <c r="C67" s="2"/>
     </row>
@@ -4003,9 +3945,8 @@
       <c r="A68" s="5">
         <v>6.9000000000000101</v>
       </c>
-      <c r="B68" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B68" s="2">
+        <v>0.33499999999999952</v>
       </c>
       <c r="C68" s="2"/>
     </row>
@@ -4013,9 +3954,8 @@
       <c r="A69" s="5">
         <v>7.0000000000000098</v>
       </c>
-      <c r="B69" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B69" s="2">
+        <v>0.33000000000000279</v>
       </c>
       <c r="C69" s="2"/>
     </row>
@@ -4023,9 +3963,8 @@
       <c r="A70" s="5">
         <v>7.1</v>
       </c>
-      <c r="B70" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B70" s="2">
+        <v>0.35849999999999993</v>
       </c>
       <c r="C70" s="2"/>
     </row>
@@ -4033,9 +3972,8 @@
       <c r="A71" s="5">
         <v>7.2000000000000099</v>
       </c>
-      <c r="B71" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B71" s="2">
+        <v>0.38700000000000284</v>
       </c>
       <c r="C71" s="2"/>
     </row>
@@ -4043,9 +3981,8 @@
       <c r="A72" s="5">
         <v>7.3000000000000096</v>
       </c>
-      <c r="B72" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B72" s="2">
+        <v>0.41550000000000276</v>
       </c>
       <c r="C72" s="2"/>
     </row>
@@ -4053,9 +3990,8 @@
       <c r="A73" s="5">
         <v>7.4000000000000101</v>
       </c>
-      <c r="B73" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B73" s="2">
+        <v>0.44400000000000295</v>
       </c>
       <c r="C73" s="2"/>
     </row>
@@ -4063,9 +3999,8 @@
       <c r="A74" s="5">
         <v>7.5000000000000098</v>
       </c>
-      <c r="B74" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B74" s="2">
+        <v>0.47250000000000281</v>
       </c>
       <c r="C74" s="2"/>
     </row>
@@ -4073,9 +4008,8 @@
       <c r="A75" s="5">
         <v>7.6000000000000103</v>
       </c>
-      <c r="B75" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B75" s="2">
+        <v>0.501000000000003</v>
       </c>
       <c r="C75" s="2"/>
     </row>
@@ -4083,9 +4017,8 @@
       <c r="A76" s="5">
         <v>7.7000000000000099</v>
       </c>
-      <c r="B76" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B76" s="2">
+        <v>0.52950000000000286</v>
       </c>
       <c r="C76" s="2"/>
     </row>
@@ -4093,9 +4026,8 @@
       <c r="A77" s="5">
         <v>7.8000000000000096</v>
       </c>
-      <c r="B77" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B77" s="2">
+        <v>0.55800000000000272</v>
       </c>
       <c r="C77" s="2"/>
     </row>
@@ -4103,9 +4035,8 @@
       <c r="A78" s="5">
         <v>7.9000000000000101</v>
       </c>
-      <c r="B78" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B78" s="2">
+        <v>0.58650000000000291</v>
       </c>
       <c r="C78" s="2"/>
     </row>
@@ -4113,9 +4044,8 @@
       <c r="A79" s="5">
         <v>8.0000000000000107</v>
       </c>
-      <c r="B79" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B79" s="2">
+        <v>0.6150000000000031</v>
       </c>
       <c r="C79" s="2"/>
     </row>
@@ -4123,9 +4053,8 @@
       <c r="A80" s="5">
         <v>8.1000000000000103</v>
       </c>
-      <c r="B80" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B80" s="2">
+        <v>0.64350000000000296</v>
       </c>
       <c r="C80" s="2"/>
     </row>
@@ -4133,9 +4062,8 @@
       <c r="A81" s="5">
         <v>8.2000000000000099</v>
       </c>
-      <c r="B81" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B81" s="2">
+        <v>0.67200000000000282</v>
       </c>
       <c r="C81" s="2"/>
     </row>
@@ -4143,9 +4071,8 @@
       <c r="A82" s="5">
         <v>8.3000000000000096</v>
       </c>
-      <c r="B82" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B82" s="2">
+        <v>0.70050000000000279</v>
       </c>
       <c r="C82" s="2"/>
     </row>
@@ -4153,9 +4080,8 @@
       <c r="A83" s="5">
         <v>8.4000000000000092</v>
       </c>
-      <c r="B83" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B83" s="2">
+        <v>0.72900000000000276</v>
       </c>
       <c r="C83" s="2"/>
     </row>
@@ -4163,9 +4089,8 @@
       <c r="A84" s="5">
         <v>8.5000000000000107</v>
       </c>
-      <c r="B84" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B84" s="2">
+        <v>0.75750000000000317</v>
       </c>
       <c r="C84" s="2"/>
     </row>
@@ -4173,9 +4098,8 @@
       <c r="A85" s="5">
         <v>8.6000000000000103</v>
       </c>
-      <c r="B85" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B85" s="2">
+        <v>0.78600000000000292</v>
       </c>
       <c r="C85" s="2"/>
     </row>
@@ -4183,9 +4107,8 @@
       <c r="A86" s="5">
         <v>8.7000000000000099</v>
       </c>
-      <c r="B86" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B86" s="2">
+        <v>0.81450000000000289</v>
       </c>
       <c r="C86" s="2"/>
     </row>
@@ -4193,9 +4116,8 @@
       <c r="A87" s="5">
         <v>8.8000000000000096</v>
       </c>
-      <c r="B87" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B87" s="2">
+        <v>0.84300000000000286</v>
       </c>
       <c r="C87" s="2"/>
     </row>
@@ -4203,9 +4125,8 @@
       <c r="A88" s="5">
         <v>8.9000000000000092</v>
       </c>
-      <c r="B88" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B88" s="2">
+        <v>0.87150000000000261</v>
       </c>
       <c r="C88" s="2"/>
     </row>
@@ -4213,9 +4134,8 @@
       <c r="A89" s="5">
         <v>9.0000000000000107</v>
       </c>
-      <c r="B89" s="2" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B89" s="2">
+        <v>0.9</v>
       </c>
       <c r="C89" s="2"/>
     </row>
@@ -4233,7 +4153,7 @@
   <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4277,8 +4197,8 @@
         <v>0.54860451258886855</v>
       </c>
       <c r="E2" s="1" t="str" cm="1">
-        <f t="array" ref="E2">_xll.INTERP1.NEW.CUBIC(E1,A2:A6,B2:B6,H2:H3,I2:I3)</f>
-        <v>~Interp1~my.interp.cubic~000001B2AB3F2670</v>
+        <f t="array" aca="1" ref="E2" ca="1">_xll.INTERP1.NEW.CUBIC(E1,A2:A6,B2:B6,H2:H3,I2:I3)</f>
+        <v>~Interp1~my.interp.cubic~000001AE39B70F40</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -4326,7 +4246,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" cm="1">
-        <f t="array" ref="E5">_xll.INTERP1.GET(E2,E4)</f>
+        <f t="array" aca="1" ref="E5" ca="1">_xll.INTERP1.GET(E2,E4)</f>
         <v>0.30957465847962218</v>
       </c>
     </row>
@@ -4354,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2">
-        <f t="array" ref="B10:B89">_xll.INTERP1.GET(E2,A10:A89)</f>
+        <f t="array" aca="1" ref="B10:B89" ca="1">_xll.INTERP1.GET(E2,A10:A89)</f>
         <v>0.54860451258886855</v>
       </c>
     </row>
@@ -4363,6 +4283,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B11" s="2">
+        <f ca="1"/>
         <v>0.56199089854905826</v>
       </c>
     </row>
@@ -4371,6 +4292,7 @@
         <v>1.2</v>
       </c>
       <c r="B12" s="2">
+        <f ca="1"/>
         <v>0.57528981666579471</v>
       </c>
     </row>
@@ -4379,6 +4301,7 @@
         <v>1.3</v>
       </c>
       <c r="B13" s="2">
+        <f ca="1"/>
         <v>0.58841379909562497</v>
       </c>
     </row>
@@ -4387,6 +4310,7 @@
         <v>1.4</v>
       </c>
       <c r="B14" s="2">
+        <f ca="1"/>
         <v>0.60127537799509578</v>
       </c>
     </row>
@@ -4395,6 +4319,7 @@
         <v>1.5</v>
       </c>
       <c r="B15" s="2">
+        <f ca="1"/>
         <v>0.61378708552075423</v>
       </c>
     </row>
@@ -4403,6 +4328,7 @@
         <v>1.6</v>
       </c>
       <c r="B16" s="2">
+        <f ca="1"/>
         <v>0.62586145382914704</v>
       </c>
     </row>
@@ -4411,6 +4337,7 @@
         <v>1.7</v>
       </c>
       <c r="B17" s="2">
+        <f ca="1"/>
         <v>0.63741101507682085</v>
       </c>
     </row>
@@ -4419,6 +4346,7 @@
         <v>1.8</v>
       </c>
       <c r="B18" s="2">
+        <f ca="1"/>
         <v>0.64834830142032285</v>
       </c>
     </row>
@@ -4427,6 +4355,7 @@
         <v>1.9</v>
       </c>
       <c r="B19" s="2">
+        <f ca="1"/>
         <v>0.65858584501619999</v>
       </c>
     </row>
@@ -4435,6 +4364,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2">
+        <f ca="1"/>
         <v>0.66803617802099879</v>
       </c>
     </row>
@@ -4443,6 +4373,7 @@
         <v>2.1</v>
       </c>
       <c r="B21" s="2">
+        <f ca="1"/>
         <v>0.67661183259126645</v>
       </c>
     </row>
@@ -4451,6 +4382,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B22" s="2">
+        <f ca="1"/>
         <v>0.68422534088354947</v>
       </c>
     </row>
@@ -4459,6 +4391,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B23" s="2">
+        <f ca="1"/>
         <v>0.69078923505439505</v>
       </c>
     </row>
@@ -4467,6 +4400,7 @@
         <v>2.4</v>
       </c>
       <c r="B24" s="2">
+        <f ca="1"/>
         <v>0.69621604726034991</v>
       </c>
     </row>
@@ -4475,6 +4409,7 @@
         <v>2.5</v>
       </c>
       <c r="B25" s="2">
+        <f ca="1"/>
         <v>0.70041830965796092</v>
       </c>
     </row>
@@ -4483,6 +4418,7 @@
         <v>2.6</v>
       </c>
       <c r="B26" s="2">
+        <f ca="1"/>
         <v>0.70330855440377515</v>
       </c>
     </row>
@@ -4491,6 +4427,7 @@
         <v>2.7</v>
       </c>
       <c r="B27" s="2">
+        <f ca="1"/>
         <v>0.70479931365433934</v>
       </c>
     </row>
@@ -4499,6 +4436,7 @@
         <v>2.8</v>
       </c>
       <c r="B28" s="2">
+        <f ca="1"/>
         <v>0.70480311956620023</v>
       </c>
     </row>
@@ -4507,6 +4445,7 @@
         <v>2.9</v>
       </c>
       <c r="B29" s="2">
+        <f ca="1"/>
         <v>0.70323250429590478</v>
       </c>
     </row>
@@ -4515,6 +4454,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="2">
+        <f ca="1"/>
         <v>0.7</v>
       </c>
     </row>
@@ -4523,6 +4463,7 @@
         <v>3.1</v>
       </c>
       <c r="B31" s="2">
+        <f ca="1"/>
         <v>0.69505293224255915</v>
       </c>
     </row>
@@ -4531,6 +4472,7 @@
         <v>3.2</v>
       </c>
       <c r="B32" s="2">
+        <f ca="1"/>
         <v>0.68847780021776317</v>
       </c>
     </row>
@@ -4539,6 +4481,7 @@
         <v>3.3</v>
       </c>
       <c r="B33" s="2">
+        <f ca="1"/>
         <v>0.68039589652731924</v>
       </c>
     </row>
@@ -4547,6 +4490,7 @@
         <v>3.4</v>
       </c>
       <c r="B34" s="2">
+        <f ca="1"/>
         <v>0.6709285137729345</v>
       </c>
     </row>
@@ -4555,6 +4499,7 @@
         <v>3.5</v>
       </c>
       <c r="B35" s="2">
+        <f ca="1"/>
         <v>0.6601969445563165</v>
       </c>
     </row>
@@ -4563,6 +4508,7 @@
         <v>3.6</v>
       </c>
       <c r="B36" s="2">
+        <f ca="1"/>
         <v>0.64832248147917237</v>
       </c>
     </row>
@@ -4571,6 +4517,7 @@
         <v>3.7</v>
       </c>
       <c r="B37" s="2">
+        <f ca="1"/>
         <v>0.63542641714320935</v>
       </c>
     </row>
@@ -4579,6 +4526,7 @@
         <v>3.8</v>
       </c>
       <c r="B38" s="2">
+        <f ca="1"/>
         <v>0.6216300441501349</v>
       </c>
     </row>
@@ -4587,6 +4535,7 @@
         <v>3.9</v>
       </c>
       <c r="B39" s="2">
+        <f ca="1"/>
         <v>0.60705465510165624</v>
       </c>
     </row>
@@ -4595,6 +4544,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
+        <f ca="1"/>
         <v>0.59182154259948061</v>
       </c>
     </row>
@@ -4603,6 +4553,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B41" s="2">
+        <f ca="1"/>
         <v>0.57605199924531558</v>
       </c>
     </row>
@@ -4611,6 +4562,7 @@
         <v>4.2</v>
       </c>
       <c r="B42" s="2">
+        <f ca="1"/>
         <v>0.55986731764086783</v>
       </c>
     </row>
@@ -4619,6 +4571,7 @@
         <v>4.3</v>
       </c>
       <c r="B43" s="2">
+        <f ca="1"/>
         <v>0.54338879038784538</v>
       </c>
     </row>
@@ -4627,6 +4580,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B44" s="2">
+        <f ca="1"/>
         <v>0.526737710087955</v>
       </c>
     </row>
@@ -4635,6 +4589,7 @@
         <v>4.5</v>
       </c>
       <c r="B45" s="2">
+        <f ca="1"/>
         <v>0.51003536934290439</v>
       </c>
     </row>
@@ -4643,6 +4598,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B46" s="2">
+        <f ca="1"/>
         <v>0.49340306075440066</v>
       </c>
     </row>
@@ -4651,6 +4607,7 @@
         <v>4.7</v>
       </c>
       <c r="B47" s="2">
+        <f ca="1"/>
         <v>0.47696207692415094</v>
       </c>
     </row>
@@ -4659,6 +4616,7 @@
         <v>4.8</v>
       </c>
       <c r="B48" s="2">
+        <f ca="1"/>
         <v>0.46083371045386279</v>
       </c>
     </row>
@@ -4667,6 +4625,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B49" s="2">
+        <f ca="1"/>
         <v>0.44513925394524329</v>
       </c>
     </row>
@@ -4675,6 +4634,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="2">
+        <f ca="1"/>
         <v>0.43</v>
       </c>
     </row>
@@ -4683,6 +4643,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B51" s="2">
+        <f ca="1"/>
         <v>0.41552466646158592</v>
       </c>
     </row>
@@ -4691,6 +4652,7 @@
         <v>5.2</v>
       </c>
       <c r="B52" s="2">
+        <f ca="1"/>
         <v>0.40177167214043724</v>
       </c>
     </row>
@@ -4699,6 +4661,7 @@
         <v>5.3</v>
       </c>
       <c r="B53" s="2">
+        <f ca="1"/>
         <v>0.38878686108873672</v>
       </c>
     </row>
@@ -4707,6 +4670,7 @@
         <v>5.4</v>
       </c>
       <c r="B54" s="2">
+        <f ca="1"/>
         <v>0.37661607735866626</v>
       </c>
     </row>
@@ -4715,6 +4679,7 @@
         <v>5.5</v>
       </c>
       <c r="B55" s="2">
+        <f ca="1"/>
         <v>0.36530516500240851</v>
       </c>
     </row>
@@ -4723,6 +4688,7 @@
         <v>5.6</v>
       </c>
       <c r="B56" s="2">
+        <f ca="1"/>
         <v>0.35489996807214547</v>
       </c>
     </row>
@@ -4731,6 +4697,7 @@
         <v>5.7</v>
       </c>
       <c r="B57" s="2">
+        <f ca="1"/>
         <v>0.34544633062005947</v>
       </c>
     </row>
@@ -4739,6 +4706,7 @@
         <v>5.8</v>
       </c>
       <c r="B58" s="2">
+        <f ca="1"/>
         <v>0.33699009669833291</v>
       </c>
     </row>
@@ -4747,6 +4715,7 @@
         <v>5.9</v>
       </c>
       <c r="B59" s="2">
+        <f ca="1"/>
         <v>0.32957711035914805</v>
       </c>
     </row>
@@ -4755,6 +4724,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="2">
+        <f ca="1"/>
         <v>0.32325321565468712</v>
       </c>
     </row>
@@ -4763,6 +4733,7 @@
         <v>6.1</v>
       </c>
       <c r="B61" s="2">
+        <f ca="1"/>
         <v>0.31806425663713245</v>
       </c>
     </row>
@@ -4771,6 +4742,7 @@
         <v>6.2</v>
       </c>
       <c r="B62" s="2">
+        <f ca="1"/>
         <v>0.31405607735866631</v>
       </c>
     </row>
@@ -4779,6 +4751,7 @@
         <v>6.3</v>
       </c>
       <c r="B63" s="2">
+        <f ca="1"/>
         <v>0.31127452187147103</v>
       </c>
     </row>
@@ -4787,6 +4760,7 @@
         <v>6.4</v>
       </c>
       <c r="B64" s="2">
+        <f ca="1"/>
         <v>0.3097654342277289</v>
       </c>
     </row>
@@ -4795,6 +4769,7 @@
         <v>6.5000000000000098</v>
       </c>
       <c r="B65" s="2">
+        <f ca="1"/>
         <v>0.30957465847962223</v>
       </c>
     </row>
@@ -4803,6 +4778,7 @@
         <v>6.6</v>
       </c>
       <c r="B66" s="2">
+        <f ca="1"/>
         <v>0.31074803867933315</v>
       </c>
     </row>
@@ -4811,6 +4787,7 @@
         <v>6.7</v>
       </c>
       <c r="B67" s="2">
+        <f ca="1"/>
         <v>0.31333141887904414</v>
       </c>
     </row>
@@ -4819,6 +4796,7 @@
         <v>6.8000000000000096</v>
       </c>
       <c r="B68" s="2">
+        <f ca="1"/>
         <v>0.31737064313093788</v>
       </c>
     </row>
@@ -4827,6 +4805,7 @@
         <v>6.9000000000000101</v>
       </c>
       <c r="B69" s="2">
+        <f ca="1"/>
         <v>0.32291155548719591</v>
       </c>
     </row>
@@ -4835,6 +4814,7 @@
         <v>7.0000000000000098</v>
       </c>
       <c r="B70" s="2">
+        <f ca="1"/>
         <v>0.33000000000000079</v>
       </c>
     </row>
@@ -4843,6 +4823,7 @@
         <v>7.1</v>
       </c>
       <c r="B71" s="2">
+        <f ca="1"/>
         <v>0.33866090191109738</v>
       </c>
     </row>
@@ -4851,6 +4832,7 @@
         <v>7.2000000000000099</v>
       </c>
       <c r="B72" s="2">
+        <f ca="1"/>
         <v>0.34883551122048867</v>
       </c>
     </row>
@@ -4859,6 +4841,7 @@
         <v>7.3000000000000096</v>
       </c>
       <c r="B73" s="2">
+        <f ca="1"/>
         <v>0.36044415911773514</v>
       </c>
     </row>
@@ -4867,6 +4850,7 @@
         <v>7.4000000000000101</v>
       </c>
       <c r="B74" s="2">
+        <f ca="1"/>
         <v>0.37340717679240154</v>
       </c>
     </row>
@@ -4875,6 +4859,7 @@
         <v>7.5000000000000098</v>
       </c>
       <c r="B75" s="2">
+        <f ca="1"/>
         <v>0.38764489543405101</v>
       </c>
     </row>
@@ -4883,6 +4868,7 @@
         <v>7.6000000000000103</v>
       </c>
       <c r="B76" s="2">
+        <f ca="1"/>
         <v>0.40307764623224768</v>
       </c>
     </row>
@@ -4891,6 +4877,7 @@
         <v>7.7000000000000099</v>
       </c>
       <c r="B77" s="2">
+        <f ca="1"/>
         <v>0.41962576037655441</v>
       </c>
     </row>
@@ -4899,6 +4886,7 @@
         <v>7.8000000000000096</v>
       </c>
       <c r="B78" s="2">
+        <f ca="1"/>
         <v>0.43720956905653519</v>
       </c>
     </row>
@@ -4907,6 +4895,7 @@
         <v>7.9000000000000101</v>
       </c>
       <c r="B79" s="2">
+        <f ca="1"/>
         <v>0.45574940346175358</v>
       </c>
     </row>
@@ -4915,6 +4904,7 @@
         <v>8.0000000000000107</v>
       </c>
       <c r="B80" s="2">
+        <f ca="1"/>
         <v>0.475165594781773</v>
       </c>
     </row>
@@ -4923,6 +4913,7 @@
         <v>8.1000000000000103</v>
       </c>
       <c r="B81" s="2">
+        <f ca="1"/>
         <v>0.49537847420615688</v>
       </c>
     </row>
@@ -4931,6 +4922,7 @@
         <v>8.2000000000000099</v>
       </c>
       <c r="B82" s="2">
+        <f ca="1"/>
         <v>0.51630837292446885</v>
       </c>
     </row>
@@ -4939,6 +4931,7 @@
         <v>8.3000000000000096</v>
       </c>
       <c r="B83" s="2">
+        <f ca="1"/>
         <v>0.53787562212627249</v>
       </c>
     </row>
@@ -4947,6 +4940,7 @@
         <v>8.4000000000000092</v>
       </c>
       <c r="B84" s="2">
+        <f ca="1"/>
         <v>0.56000055300113138</v>
       </c>
     </row>
@@ -4955,6 +4949,7 @@
         <v>8.5000000000000107</v>
       </c>
       <c r="B85" s="2">
+        <f ca="1"/>
         <v>0.58260349673860923</v>
       </c>
     </row>
@@ -4963,6 +4958,7 @@
         <v>8.6000000000000103</v>
       </c>
       <c r="B86" s="2">
+        <f ca="1"/>
         <v>0.60560478452826916</v>
       </c>
     </row>
@@ -4971,6 +4967,7 @@
         <v>8.7000000000000099</v>
       </c>
       <c r="B87" s="2">
+        <f ca="1"/>
         <v>0.62892474755967465</v>
       </c>
     </row>
@@ -4979,6 +4976,7 @@
         <v>8.8000000000000096</v>
       </c>
       <c r="B88" s="2">
+        <f ca="1"/>
         <v>0.65248371702238983</v>
       </c>
     </row>
@@ -4987,6 +4985,7 @@
         <v>8.9000000000000092</v>
       </c>
       <c r="B89" s="2">
+        <f ca="1"/>
         <v>0.67620202410597774</v>
       </c>
     </row>
@@ -5007,7 +5006,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5065,8 +5064,8 @@
         <v>6.2349232617800676E-2</v>
       </c>
       <c r="I2" s="1" t="str" cm="1">
-        <f t="array" ref="I2">_xll.INTERP2.NEW.LINEAR(I1,A2:A6,B1:F1,B2:F6)</f>
-        <v>~Interp2~my.interp2d.linear~000001B3371A5F60</v>
+        <f t="array" aca="1" ref="I2" ca="1">_xll.INTERP2.NEW.LINEAR(I1,A2:A6,B1:F1,B2:F6)</f>
+        <v>~Interp2~my.interp2d.linear~000001AEBC69AD20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5164,7 +5163,7 @@
         <v>17</v>
       </c>
       <c r="I6" s="2" cm="1">
-        <f t="array" ref="I6">_xll.INTERP2.GET(I2,I4,I5)</f>
+        <f t="array" aca="1" ref="I6" ca="1">_xll.INTERP2.GET(I2,I4,I5)</f>
         <v>0.13426169853642655</v>
       </c>
     </row>
@@ -5205,31 +5204,39 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <f t="array" ref="B12:J20">_xll.INTERP2.GET(I2,A12:A20,B11:J11)</f>
+        <f t="array" aca="1" ref="B12:J20" ca="1">_xll.INTERP2.GET(I2,A12:A20,B11:J11)</f>
         <v>0.16585158168944869</v>
       </c>
       <c r="C12" s="2">
+        <f ca="1"/>
         <v>0.27239882252426922</v>
       </c>
       <c r="D12" s="2">
+        <f ca="1"/>
         <v>0.37894606335908976</v>
       </c>
       <c r="E12" s="2">
+        <f ca="1"/>
         <v>0.67105103244781472</v>
       </c>
       <c r="F12" s="2">
+        <f ca="1"/>
         <v>0.9631560015365398</v>
       </c>
       <c r="G12" s="2">
+        <f ca="1"/>
         <v>0.86498235605730067</v>
       </c>
       <c r="H12" s="2">
+        <f ca="1"/>
         <v>0.76680871057806166</v>
       </c>
       <c r="I12" s="2">
+        <f ca="1"/>
         <v>0.41457897159793117</v>
       </c>
       <c r="J12" s="2">
+        <f ca="1"/>
         <v>6.2349232617800676E-2</v>
       </c>
     </row>
@@ -5238,30 +5245,39 @@
         <v>2</v>
       </c>
       <c r="B13" s="2">
+        <f ca="1"/>
         <v>0.20680710753856474</v>
       </c>
       <c r="C13" s="2">
+        <f ca="1"/>
         <v>0.23170549424316145</v>
       </c>
       <c r="D13" s="2">
+        <f ca="1"/>
         <v>0.25660388094775816</v>
       </c>
       <c r="E13" s="2">
+        <f ca="1"/>
         <v>0.51028864066260571</v>
       </c>
       <c r="F13" s="2">
+        <f ca="1"/>
         <v>0.76397340037745332</v>
       </c>
       <c r="G13" s="2">
+        <f ca="1"/>
         <v>0.61592205277465117</v>
       </c>
       <c r="H13" s="2">
+        <f ca="1"/>
         <v>0.4678707051718492</v>
       </c>
       <c r="I13" s="2">
+        <f ca="1"/>
         <v>0.46950109361907921</v>
       </c>
       <c r="J13" s="2">
+        <f ca="1"/>
         <v>0.47113148206630917</v>
       </c>
     </row>
@@ -5270,30 +5286,39 @@
         <v>3</v>
       </c>
       <c r="B14" s="2">
+        <f ca="1"/>
         <v>0.24776263338768079</v>
       </c>
       <c r="C14" s="2">
+        <f ca="1"/>
         <v>0.19101216596205367</v>
       </c>
       <c r="D14" s="2">
+        <f ca="1"/>
         <v>0.13426169853642655</v>
       </c>
       <c r="E14" s="2">
+        <f ca="1"/>
         <v>0.34952624887739669</v>
       </c>
       <c r="F14" s="2">
+        <f ca="1"/>
         <v>0.56479079921836683</v>
       </c>
       <c r="G14" s="2">
+        <f ca="1"/>
         <v>0.36686174949200179</v>
       </c>
       <c r="H14" s="2">
+        <f ca="1"/>
         <v>0.16893269976563674</v>
       </c>
       <c r="I14" s="2">
+        <f ca="1"/>
         <v>0.5244232156402272</v>
       </c>
       <c r="J14" s="2">
+        <f ca="1"/>
         <v>0.87991373151481767</v>
       </c>
     </row>
@@ -5302,30 +5327,39 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
+        <f ca="1"/>
         <v>0.42858618067714443</v>
       </c>
       <c r="C15" s="2">
+        <f ca="1"/>
         <v>0.38417486263143785</v>
       </c>
       <c r="D15" s="2">
+        <f ca="1"/>
         <v>0.33976354458573133</v>
       </c>
       <c r="E15" s="2">
+        <f ca="1"/>
         <v>0.39638395191899944</v>
       </c>
       <c r="F15" s="2">
+        <f ca="1"/>
         <v>0.45300435925226762</v>
       </c>
       <c r="G15" s="2">
+        <f ca="1"/>
         <v>0.27500154114926223</v>
       </c>
       <c r="H15" s="2">
+        <f ca="1"/>
         <v>9.6998723046256785E-2</v>
       </c>
       <c r="I15" s="2">
+        <f ca="1"/>
         <v>0.34319023103126611</v>
       </c>
       <c r="J15" s="2">
+        <f ca="1"/>
         <v>0.58938173901627544</v>
       </c>
     </row>
@@ -5334,30 +5368,39 @@
         <v>5</v>
       </c>
       <c r="B16" s="2">
+        <f ca="1"/>
         <v>0.60940972796660808</v>
       </c>
       <c r="C16" s="2">
+        <f ca="1"/>
         <v>0.57733755930082209</v>
       </c>
       <c r="D16" s="2">
+        <f ca="1"/>
         <v>0.5452653906350361</v>
       </c>
       <c r="E16" s="2">
+        <f ca="1"/>
         <v>0.44324165496060225</v>
       </c>
       <c r="F16" s="2">
+        <f ca="1"/>
         <v>0.3412179192861684</v>
       </c>
       <c r="G16" s="2">
+        <f ca="1"/>
         <v>0.18314133280652262</v>
       </c>
       <c r="H16" s="2">
+        <f ca="1"/>
         <v>2.506474632687683E-2</v>
       </c>
       <c r="I16" s="2">
+        <f ca="1"/>
         <v>0.16195724642230508</v>
       </c>
       <c r="J16" s="2">
+        <f ca="1"/>
         <v>0.29884974651773333</v>
       </c>
     </row>
@@ -5366,30 +5409,39 @@
         <v>6</v>
       </c>
       <c r="B17" s="2">
+        <f ca="1"/>
         <v>0.3654542077862083</v>
       </c>
       <c r="C17" s="2">
+        <f ca="1"/>
         <v>0.33037164500905114</v>
       </c>
       <c r="D17" s="2">
+        <f ca="1"/>
         <v>0.29528908223189393</v>
       </c>
       <c r="E17" s="2">
+        <f ca="1"/>
         <v>0.32473538691701676</v>
       </c>
       <c r="F17" s="2">
+        <f ca="1"/>
         <v>0.35418169160213958</v>
       </c>
       <c r="G17" s="2">
+        <f ca="1"/>
         <v>0.23520861677395136</v>
       </c>
       <c r="H17" s="2">
+        <f ca="1"/>
         <v>0.11623554194576313</v>
       </c>
       <c r="I17" s="2">
+        <f ca="1"/>
         <v>0.3053989801825947</v>
       </c>
       <c r="J17" s="2">
+        <f ca="1"/>
         <v>0.49456241841942628</v>
       </c>
     </row>
@@ -5398,30 +5450,39 @@
         <v>7</v>
       </c>
       <c r="B18" s="2">
+        <f ca="1"/>
         <v>0.12149868760580851</v>
       </c>
       <c r="C18" s="2">
+        <f ca="1"/>
         <v>8.3405730717280135E-2</v>
       </c>
       <c r="D18" s="2">
+        <f ca="1"/>
         <v>4.5312773828751762E-2</v>
       </c>
       <c r="E18" s="2">
+        <f ca="1"/>
         <v>0.20622911887343126</v>
       </c>
       <c r="F18" s="2">
+        <f ca="1"/>
         <v>0.36714546391811076</v>
       </c>
       <c r="G18" s="2">
+        <f ca="1"/>
         <v>0.2872759007413801</v>
       </c>
       <c r="H18" s="2">
+        <f ca="1"/>
         <v>0.20740633756464943</v>
       </c>
       <c r="I18" s="2">
+        <f ca="1"/>
         <v>0.44884071394288433</v>
       </c>
       <c r="J18" s="2">
+        <f ca="1"/>
         <v>0.69027509032111922</v>
       </c>
     </row>
@@ -5430,30 +5491,39 @@
         <v>8</v>
       </c>
       <c r="B19" s="2">
+        <f ca="1"/>
         <v>0.42092923340898453</v>
       </c>
       <c r="C19" s="2">
+        <f ca="1"/>
         <v>0.2785047239338273</v>
       </c>
       <c r="D19" s="2">
+        <f ca="1"/>
         <v>0.13608021445867008</v>
       </c>
       <c r="E19" s="2">
+        <f ca="1"/>
         <v>0.34175136482609714</v>
       </c>
       <c r="F19" s="2">
+        <f ca="1"/>
         <v>0.54742251519352414</v>
       </c>
       <c r="G19" s="2">
+        <f ca="1"/>
         <v>0.37457321996283893</v>
       </c>
       <c r="H19" s="2">
+        <f ca="1"/>
         <v>0.20172392473215367</v>
       </c>
       <c r="I19" s="2">
+        <f ca="1"/>
         <v>0.50576421389694015</v>
       </c>
       <c r="J19" s="2">
+        <f ca="1"/>
         <v>0.80980450306172658</v>
       </c>
     </row>
@@ -5462,30 +5532,39 @@
         <v>9</v>
       </c>
       <c r="B20" s="2">
+        <f ca="1"/>
         <v>0.72035977921216054</v>
       </c>
       <c r="C20" s="2">
+        <f ca="1"/>
         <v>0.47360371715037447</v>
       </c>
       <c r="D20" s="2">
+        <f ca="1"/>
         <v>0.2268476550885884</v>
       </c>
       <c r="E20" s="2">
+        <f ca="1"/>
         <v>0.47727361077876301</v>
       </c>
       <c r="F20" s="2">
+        <f ca="1"/>
         <v>0.72769956646893763</v>
       </c>
       <c r="G20" s="2">
+        <f ca="1"/>
         <v>0.46187053918429777</v>
       </c>
       <c r="H20" s="2">
+        <f ca="1"/>
         <v>0.19604151189965791</v>
       </c>
       <c r="I20" s="2">
+        <f ca="1"/>
         <v>0.56268771385099592</v>
       </c>
       <c r="J20" s="2">
+        <f ca="1"/>
         <v>0.92933391580233393</v>
       </c>
     </row>
